--- a/doc/RadMudEditor.xlsx
+++ b/doc/RadMudEditor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="RaceBaseSkill" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="CombatModifier">Variables!$K$2:$K$14</definedName>
     <definedName name="Knowledge">Variables!$M$2:$M$9</definedName>
     <definedName name="Race">Variables!$A$2:$A$6</definedName>
-    <definedName name="Skill">Variables!$E$2:$E$34</definedName>
+    <definedName name="Skill">Variables!$E$2:$E$36</definedName>
     <definedName name="StatusModifier">Variables!$I$2:$I$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="116">
   <si>
     <t>Athletics</t>
   </si>
@@ -277,10 +277,6 @@
   </si>
   <si>
     <t>Setter</t>
-  </si>
-  <si>
-    <t>Required
-Rank</t>
   </si>
   <si>
     <t>Ability
@@ -332,6 +328,60 @@
   </si>
   <si>
     <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Brawler</t>
+  </si>
+  <si>
+    <t>Weak Spots</t>
+  </si>
+  <si>
+    <t>Newbie</t>
+  </si>
+  <si>
+    <t>Novide</t>
+  </si>
+  <si>
+    <t>Rookie</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Talented</t>
+  </si>
+  <si>
+    <t>Skilled</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Seasoned</t>
+  </si>
+  <si>
+    <t>Proficient</t>
+  </si>
+  <si>
+    <t>Experienced</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>SKILL RANK</t>
+  </si>
+  <si>
+    <t>TRESHOLD</t>
   </si>
 </sst>
 </file>
@@ -401,15 +451,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,14 +481,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -769,7 +813,7 @@
     <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="5" max="5" width="9.140625" style="10"/>
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -777,27 +821,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
@@ -805,11 +849,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A2,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F2" s="11" t="str">
+      <c r="F2" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B2,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
@@ -820,7 +864,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -828,11 +872,11 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A3,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B3,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
@@ -843,7 +887,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -851,11 +895,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A4,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B4,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
@@ -866,7 +910,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -874,11 +918,11 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="str">
+      <c r="E5" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A5,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B5,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
@@ -889,7 +933,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -897,11 +941,11 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="str">
+      <c r="E6" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A6,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B6,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
@@ -912,7 +956,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
@@ -920,11 +964,11 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="str">
+      <c r="E7" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A7,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B7,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"6"</v>
       </c>
@@ -935,7 +979,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -943,11 +987,11 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A8,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B8,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"7"</v>
       </c>
@@ -958,7 +1002,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -966,11 +1010,11 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A9,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B9,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"8"</v>
       </c>
@@ -981,7 +1025,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -989,11 +1033,11 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A10,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B10,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"9"</v>
       </c>
@@ -1004,7 +1048,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -1012,11 +1056,11 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A11,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F11" s="11" t="str">
+      <c r="F11" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B11,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"10"</v>
       </c>
@@ -1027,7 +1071,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -1035,11 +1079,11 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A12,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B12,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"11"</v>
       </c>
@@ -1050,7 +1094,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
@@ -1058,11 +1102,11 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="str">
+      <c r="E13" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A13,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F13" s="11" t="str">
+      <c r="F13" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B13,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
@@ -1073,7 +1117,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -1081,11 +1125,11 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A14,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F14" s="11" t="str">
+      <c r="F14" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B14,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
@@ -1096,7 +1140,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -1104,11 +1148,11 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="str">
+      <c r="E15" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A15,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F15" s="11" t="str">
+      <c r="F15" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B15,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
@@ -1119,7 +1163,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -1127,11 +1171,11 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="str">
+      <c r="E16" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A16,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F16" s="11" t="str">
+      <c r="F16" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B16,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
@@ -1142,7 +1186,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -1150,11 +1194,11 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="str">
+      <c r="E17" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A17,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F17" s="11" t="str">
+      <c r="F17" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B17,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
@@ -1165,7 +1209,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
@@ -1173,11 +1217,11 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="str">
+      <c r="E18" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A18,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F18" s="11" t="str">
+      <c r="F18" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B18,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"6"</v>
       </c>
@@ -1188,7 +1232,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -1196,11 +1240,11 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A19,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F19" s="11" t="str">
+      <c r="F19" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B19,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"7"</v>
       </c>
@@ -1211,7 +1255,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -1219,11 +1263,11 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A20,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F20" s="11" t="str">
+      <c r="F20" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B20,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"8"</v>
       </c>
@@ -1234,7 +1278,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1242,11 +1286,11 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A21,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F21" s="11" t="str">
+      <c r="F21" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B21,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"9"</v>
       </c>
@@ -1257,7 +1301,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
@@ -1265,11 +1309,11 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A22,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F22" s="11" t="str">
+      <c r="F22" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B22,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"10"</v>
       </c>
@@ -1280,7 +1324,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
@@ -1288,11 +1332,11 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="str">
+      <c r="E23" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A23,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B23,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"11"</v>
       </c>
@@ -1303,7 +1347,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -1311,11 +1355,11 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A24,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F24" s="11" t="str">
+      <c r="F24" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B24,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
@@ -1326,7 +1370,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
@@ -1334,11 +1378,11 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="11" t="str">
+      <c r="E25" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A25,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B25,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
@@ -1349,7 +1393,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>20</v>
@@ -1357,11 +1401,11 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A26,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B26,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
@@ -1372,7 +1416,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -1380,11 +1424,11 @@
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="11" t="str">
+      <c r="E27" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A27,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F27" s="11" t="str">
+      <c r="F27" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B27,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
@@ -1395,7 +1439,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -1403,11 +1447,11 @@
       <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="11" t="str">
+      <c r="E28" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A28,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F28" s="11" t="str">
+      <c r="F28" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B28,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
@@ -1418,7 +1462,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
@@ -1426,11 +1470,11 @@
       <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="11" t="str">
+      <c r="E29" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A29,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F29" s="11" t="str">
+      <c r="F29" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B29,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"6"</v>
       </c>
@@ -1441,7 +1485,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -1449,11 +1493,11 @@
       <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="str">
+      <c r="E30" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A30,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F30" s="11" t="str">
+      <c r="F30" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B30,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"7"</v>
       </c>
@@ -1464,7 +1508,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -1472,11 +1516,11 @@
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A31,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F31" s="11" t="str">
+      <c r="F31" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B31,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"8"</v>
       </c>
@@ -1487,7 +1531,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1495,11 +1539,11 @@
       <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A32,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F32" s="11" t="str">
+      <c r="F32" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B32,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"9"</v>
       </c>
@@ -1510,7 +1554,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
@@ -1518,11 +1562,11 @@
       <c r="C33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A33,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F33" s="11" t="str">
+      <c r="F33" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B33,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"10"</v>
       </c>
@@ -1533,7 +1577,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
@@ -1541,11 +1585,11 @@
       <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A34,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F34" s="11" t="str">
+      <c r="F34" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B34,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"11"</v>
       </c>
@@ -1555,11 +1599,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E35" s="11" t="e">
+      <c r="E35" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A35,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F35" s="11" t="e">
+      <c r="F35" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B35,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1569,11 +1613,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E36" s="11" t="e">
+      <c r="E36" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A36,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F36" s="11" t="e">
+      <c r="F36" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B36,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1583,11 +1627,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E37" s="11" t="e">
+      <c r="E37" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A37,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F37" s="11" t="e">
+      <c r="F37" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B37,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1597,11 +1641,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E38" s="11" t="e">
+      <c r="E38" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A38,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F38" s="11" t="e">
+      <c r="F38" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B38,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1611,11 +1655,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E39" s="11" t="e">
+      <c r="E39" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A39,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F39" s="11" t="e">
+      <c r="F39" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B39,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1625,11 +1669,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E40" s="11" t="e">
+      <c r="E40" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A40,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F40" s="11" t="e">
+      <c r="F40" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B40,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1639,11 +1683,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="11" t="e">
+      <c r="E41" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A41,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F41" s="11" t="e">
+      <c r="F41" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B41,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1653,11 +1697,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E42" s="11" t="e">
+      <c r="E42" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A42,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F42" s="11" t="e">
+      <c r="F42" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B42,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1667,11 +1711,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E43" s="11" t="e">
+      <c r="E43" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A43,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F43" s="11" t="e">
+      <c r="F43" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B43,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1681,11 +1725,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E44" s="11" t="e">
+      <c r="E44" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A44,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F44" s="11" t="e">
+      <c r="F44" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B44,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1695,11 +1739,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E45" s="11" t="e">
+      <c r="E45" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A45,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F45" s="11" t="e">
+      <c r="F45" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B45,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1709,11 +1753,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E46" s="11" t="e">
+      <c r="E46" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A46,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F46" s="11" t="e">
+      <c r="F46" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B46,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1723,11 +1767,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E47" s="11" t="e">
+      <c r="E47" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A47,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F47" s="11" t="e">
+      <c r="F47" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B47,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1737,11 +1781,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E48" s="11" t="e">
+      <c r="E48" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A48,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F48" s="11" t="e">
+      <c r="F48" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B48,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1751,11 +1795,11 @@
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E49" s="11" t="e">
+      <c r="E49" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A49,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="11" t="e">
+      <c r="F49" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B49,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1765,11 +1809,11 @@
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E50" s="11" t="e">
+      <c r="E50" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A50,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F50" s="11" t="e">
+      <c r="F50" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B50,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -1795,57 +1839,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="5" max="5" width="9.140625" style="10"/>
     <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A2,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F2" s="11" t="str">
+      <c r="F2" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B2,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
@@ -1854,21 +1898,21 @@
         <v>"10"</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A3,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B3,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
@@ -1877,21 +1921,21 @@
         <v>"10"</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A4,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B4,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
@@ -1900,21 +1944,21 @@
         <v>"10"</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="str">
+      <c r="E5" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A5,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B5,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
@@ -1923,21 +1967,21 @@
         <v>"10"</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="str">
+      <c r="E6" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A6,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B6,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
@@ -1946,21 +1990,21 @@
         <v>"10"</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="11" t="str">
+      <c r="E7" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A7,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B7,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
@@ -1969,21 +2013,21 @@
         <v>"6"</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A8,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B8,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
@@ -1992,21 +2036,21 @@
         <v>"12"</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A9,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B9,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
@@ -2015,21 +2059,21 @@
         <v>"8"</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A10,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B10,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
@@ -2038,21 +2082,21 @@
         <v>"8"</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1">
         <v>16</v>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A11,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="F11" s="11" t="str">
+      <c r="F11" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B11,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
@@ -2061,21 +2105,21 @@
         <v>"16"</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1">
         <v>16</v>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A12,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B12,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
@@ -2084,21 +2128,21 @@
         <v>"16"</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="11" t="str">
+      <c r="E13" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A13,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F13" s="11" t="str">
+      <c r="F13" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B13,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
@@ -2107,21 +2151,21 @@
         <v>"6"</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A14,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F14" s="11" t="str">
+      <c r="F14" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B14,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
@@ -2130,21 +2174,21 @@
         <v>"8"</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
-      <c r="E15" s="11" t="str">
+      <c r="E15" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A15,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F15" s="11" t="str">
+      <c r="F15" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B15,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
@@ -2153,21 +2197,21 @@
         <v>"14"</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="11" t="str">
+      <c r="E16" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A16,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="F16" s="11" t="str">
+      <c r="F16" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B16,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
@@ -2176,21 +2220,21 @@
         <v>"6"</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="11" t="str">
+      <c r="E17" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A17,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
-      <c r="F17" s="11" t="str">
+      <c r="F17" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B17,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
@@ -2199,21 +2243,21 @@
         <v>"2"</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
       </c>
-      <c r="E18" s="11" t="str">
+      <c r="E18" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A18,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
-      <c r="F18" s="11" t="str">
+      <c r="F18" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B18,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
@@ -2222,21 +2266,21 @@
         <v>"8"</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A19,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
-      <c r="F19" s="11" t="str">
+      <c r="F19" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B19,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
@@ -2245,21 +2289,21 @@
         <v>"14"</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A20,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
-      <c r="F20" s="11" t="str">
+      <c r="F20" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B20,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
@@ -2268,21 +2312,21 @@
         <v>"4"</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A21,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
-      <c r="F21" s="11" t="str">
+      <c r="F21" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B21,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
@@ -2291,21 +2335,21 @@
         <v>"2"</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A22,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
-      <c r="F22" s="11" t="str">
+      <c r="F22" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B22,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
@@ -2314,21 +2358,21 @@
         <v>"18"</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="E23" s="11" t="str">
+      <c r="E23" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A23,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B23,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
@@ -2337,21 +2381,21 @@
         <v>"12"</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A24,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
-      <c r="F24" s="11" t="str">
+      <c r="F24" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B24,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
@@ -2360,21 +2404,21 @@
         <v>"18"</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="11" t="str">
+      <c r="E25" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A25,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B25,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
@@ -2383,21 +2427,21 @@
         <v>"24"</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1">
         <v>12</v>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(A26,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="10" t="str">
         <f>CONCATENATE("""", VLOOKUP(B26,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
@@ -2406,15 +2450,15 @@
         <v>"12"</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="11" t="e">
+      <c r="E27" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A27,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F27" s="11" t="e">
+      <c r="F27" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B27,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2423,15 +2467,15 @@
         <v>"0"</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="11" t="e">
+      <c r="E28" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A28,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F28" s="11" t="e">
+      <c r="F28" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B28,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2440,15 +2484,15 @@
         <v>"0"</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="11" t="e">
+      <c r="E29" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A29,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F29" s="11" t="e">
+      <c r="F29" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B29,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2457,15 +2501,15 @@
         <v>"0"</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="e">
+      <c r="E30" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A30,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F30" s="11" t="e">
+      <c r="F30" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B30,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2474,15 +2518,15 @@
         <v>"0"</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="e">
+      <c r="E31" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A31,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F31" s="11" t="e">
+      <c r="F31" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B31,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2491,15 +2535,15 @@
         <v>"0"</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="E32" s="11" t="e">
+      <c r="E32" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A32,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F32" s="11" t="e">
+      <c r="F32" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B32,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2508,15 +2552,15 @@
         <v>"0"</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="e">
+      <c r="E33" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A33,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F33" s="11" t="e">
+      <c r="F33" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B33,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2525,15 +2569,15 @@
         <v>"0"</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="e">
+      <c r="E34" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A34,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F34" s="11" t="e">
+      <c r="F34" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B34,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2542,12 +2586,12 @@
         <v>"0"</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E35" s="11" t="e">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A35,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F35" s="11" t="e">
+      <c r="F35" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B35,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2556,12 +2600,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E36" s="11" t="e">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A36,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F36" s="11" t="e">
+      <c r="F36" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B36,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2570,12 +2614,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E37" s="11" t="e">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A37,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F37" s="11" t="e">
+      <c r="F37" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B37,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2584,12 +2628,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E38" s="11" t="e">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A38,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F38" s="11" t="e">
+      <c r="F38" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B38,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2598,12 +2642,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E39" s="11" t="e">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A39,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F39" s="11" t="e">
+      <c r="F39" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B39,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2612,12 +2656,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E40" s="11" t="e">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A40,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F40" s="11" t="e">
+      <c r="F40" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B40,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2626,12 +2670,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E41" s="11" t="e">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A41,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F41" s="11" t="e">
+      <c r="F41" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B41,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2640,12 +2684,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E42" s="11" t="e">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A42,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F42" s="11" t="e">
+      <c r="F42" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B42,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2654,12 +2698,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E43" s="11" t="e">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A43,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F43" s="11" t="e">
+      <c r="F43" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B43,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2668,12 +2712,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E44" s="11" t="e">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A44,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F44" s="11" t="e">
+      <c r="F44" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B44,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2682,12 +2726,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E45" s="11" t="e">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A45,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F45" s="11" t="e">
+      <c r="F45" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B45,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2696,12 +2740,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E46" s="11" t="e">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A46,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F46" s="11" t="e">
+      <c r="F46" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B46,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2710,12 +2754,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E47" s="11" t="e">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A47,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F47" s="11" t="e">
+      <c r="F47" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B47,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2724,12 +2768,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E48" s="11" t="e">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A48,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F48" s="11" t="e">
+      <c r="F48" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B48,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2738,12 +2782,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E49" s="11" t="e">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A49,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="11" t="e">
+      <c r="F49" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B49,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2752,12 +2796,12 @@
         <v>""</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E50" s="11" t="e">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(A50,Variables!$A$2:$B$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="F50" s="11" t="e">
+      <c r="F50" s="10" t="e">
         <f>CONCATENATE("""", VLOOKUP(B50,Variables!$C$2:$D$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
@@ -2781,32 +2825,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>81</v>
       </c>
@@ -2814,1198 +2856,1048 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="G3" s="7" t="str">
         <f>CONCATENATE("""", VLOOKUP(A3,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"7"</v>
       </c>
-      <c r="I3" s="8" t="str">
-        <f>CONCATENATE("""", B3, """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J3" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C3,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K3" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D3,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L3" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E3,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M3" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F3,Variables!$M$2:$N$34,2,FALSE), """")</f>
+      <c r="H3" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B3,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C3,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J3" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D3,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K3" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E3,Variables!$M$2:$N$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="8" t="str">
+      <c r="G4" s="7" t="str">
         <f>CONCATENATE("""", VLOOKUP(A4,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"7"</v>
       </c>
-      <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I30" si="0">CONCATENATE("""", B4, """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J4" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C4,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K4" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D4,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L4" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E4,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M4" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F4,Variables!$M$2:$N$34,2,FALSE), """")</f>
+      <c r="H4" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B4,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C4,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D4,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E4,Variables!$M$2:$N$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="8" t="str">
+      <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7" t="str">
         <f>CONCATENATE("""", VLOOKUP(A5,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="I5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"0"</v>
-      </c>
-      <c r="J5" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C5,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D5,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L5" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E5,Variables!$K$2:$L$34,2,FALSE), """")</f>
+      <c r="H5" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B5,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C5,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D5,Variables!$K$2:$L$34,2,FALSE), """")</f>
         <v>"1"</v>
       </c>
-      <c r="M5" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F5,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="K5" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E5,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A6,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>"1"</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"25"</v>
-      </c>
-      <c r="J6" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C6,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K6" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D6,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L6" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E6,Variables!$K$2:$L$34,2,FALSE), """")</f>
+      <c r="E6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(A6,Variables!$E$2:$F$36,2,FALSE), """")</f>
+        <v>"34"</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B6,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C6,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D6,Variables!$K$2:$L$34,2,FALSE), """")</f>
         <v>"3"</v>
       </c>
-      <c r="M6" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F6,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="K6" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E6,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="8" t="str">
+      <c r="E7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="7" t="str">
         <f>CONCATENATE("""", VLOOKUP(A7,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"2"</v>
       </c>
-      <c r="I7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"0"</v>
-      </c>
-      <c r="J7" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C7,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K7" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D7,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L7" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E7,Variables!$K$2:$L$34,2,FALSE), """")</f>
+      <c r="H7" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B7,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C7,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D7,Variables!$K$2:$L$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
-      <c r="M7" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F7,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="K7" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E7,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A8,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>"2"</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"25"</v>
-      </c>
-      <c r="J8" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C8,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K8" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D8,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L8" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E8,Variables!$K$2:$L$34,2,FALSE), """")</f>
+      <c r="E8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(A8,Variables!$E$2:$F$36,2,FALSE), """")</f>
+        <v>"35"</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B8,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C8,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D8,Variables!$K$2:$L$34,2,FALSE), """")</f>
         <v>"7"</v>
       </c>
-      <c r="M8" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F8,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="K8" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E8,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="8" t="str">
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7" t="str">
         <f>CONCATENATE("""", VLOOKUP(A9,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"4"</v>
       </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"0"</v>
-      </c>
-      <c r="J9" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C9,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K9" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D9,Variables!$I$2:$J$34,2,FALSE), """")</f>
+      <c r="H9" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B9,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C9,Variables!$I$2:$J$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
-      <c r="L9" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E9,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M9" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F9,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="8">
-        <v>50</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="J9" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D9,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E9,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="8" t="str">
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="str">
         <f>CONCATENATE("""", VLOOKUP(A10,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>"4"</v>
-      </c>
-      <c r="I10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"50"</v>
-      </c>
-      <c r="J10" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C10,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K10" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D10,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"14"</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B10,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C10,Variables!$I$2:$J$34,2,FALSE), """")</f>
         <v>"7"</v>
       </c>
-      <c r="L10" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E10,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M10" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F10,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="J10" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D10,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E10,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="8" t="str">
+      <c r="G11" s="7" t="str">
         <f>CONCATENATE("""", VLOOKUP(A11,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"10"</v>
       </c>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"0"</v>
-      </c>
-      <c r="J11" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C11,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K11" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D11,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L11" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E11,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M11" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F11,Variables!$M$2:$N$34,2,FALSE), """")</f>
+      <c r="H11" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B11,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C11,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D11,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E11,Variables!$M$2:$N$34,2,FALSE), """")</f>
         <v>"5"</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8">
-        <v>25</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="G12" s="7" t="str">
         <f>CONCATENATE("""", VLOOKUP(A12,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>"10"</v>
       </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"25"</v>
-      </c>
-      <c r="J12" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C12,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K12" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D12,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L12" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E12,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M12" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F12,Variables!$M$2:$N$34,2,FALSE), """")</f>
+      <c r="H12" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B12,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C12,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D12,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E12,Variables!$M$2:$N$34,2,FALSE), """")</f>
         <v>"6"</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="8" t="e">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A13,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J13" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C13,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K13" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D13,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L13" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E13,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M13" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F13,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="8" t="e">
+      <c r="H13" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B13,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C13,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D13,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E13,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A14,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J14" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C14,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K14" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D14,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L14" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E14,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M14" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F14,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="8" t="e">
+      <c r="H14" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B14,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C14,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D14,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E14,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A15,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J15" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C15,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K15" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D15,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L15" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E15,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M15" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F15,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="8" t="e">
+      <c r="H15" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B15,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C15,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D15,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E15,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A16,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J16" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C16,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K16" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D16,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L16" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E16,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M16" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F16,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="8" t="e">
+      <c r="H16" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B16,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C16,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D16,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E16,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A17,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J17" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C17,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K17" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D17,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L17" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E17,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M17" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F17,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="8" t="e">
+      <c r="H17" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B17,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C17,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D17,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E17,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A18,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J18" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C18,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K18" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D18,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L18" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E18,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M18" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F18,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="8" t="e">
+      <c r="H18" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B18,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C18,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D18,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E18,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A19,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J19" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C19,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K19" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D19,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L19" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E19,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M19" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F19,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="8" t="e">
+      <c r="H19" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B19,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C19,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D19,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E19,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A20,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J20" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C20,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K20" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D20,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L20" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E20,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M20" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F20,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="8" t="e">
+      <c r="H20" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B20,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C20,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D20,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E20,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A21,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J21" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C21,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K21" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D21,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L21" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E21,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M21" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F21,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="8" t="e">
+      <c r="H21" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B21,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C21,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D21,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E21,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A22,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J22" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C22,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K22" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D22,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L22" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E22,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M22" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F22,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="8" t="e">
+      <c r="H22" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B22,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C22,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D22,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E22,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A23,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J23" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C23,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K23" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D23,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L23" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E23,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M23" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F23,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="8" t="e">
+      <c r="H23" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B23,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C23,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D23,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E23,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A24,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C24,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K24" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D24,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L24" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E24,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M24" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F24,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="8" t="e">
+      <c r="H24" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B24,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C24,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D24,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E24,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A25,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J25" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C25,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K25" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D25,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L25" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E25,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M25" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F25,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="8" t="e">
+      <c r="H25" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B25,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I25" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C25,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J25" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D25,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K25" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E25,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A26,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C26,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K26" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D26,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L26" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E26,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M26" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F26,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="8" t="e">
+      <c r="H26" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B26,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I26" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C26,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J26" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D26,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E26,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A27,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J27" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C27,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K27" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D27,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L27" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E27,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M27" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F27,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="8" t="e">
+      <c r="H27" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B27,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C27,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J27" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D27,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E27,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A28,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J28" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C28,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K28" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D28,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L28" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E28,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M28" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F28,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="8" t="e">
+      <c r="H28" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B28,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I28" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C28,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J28" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D28,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K28" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E28,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A29,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J29" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C29,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K29" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D29,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L29" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E29,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M29" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F29,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="8" t="e">
+      <c r="H29" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B29,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C29,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D29,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E29,Variables!$M$2:$N$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="7" t="e">
         <f>CONCATENATE("""", VLOOKUP(A30,Variables!$E$2:$F$34,2,FALSE), """")</f>
         <v>#N/A</v>
       </c>
-      <c r="I30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="J30" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C30,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K30" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D30,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="L30" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E30,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="M30" s="8" t="str">
-        <f>CONCATENATE("""", VLOOKUP(F30,Variables!$M$2:$N$34,2,FALSE), """")</f>
+      <c r="H30" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(B30,Variables!$G$2:$H$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(C30,Variables!$I$2:$J$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(D30,Variables!$K$2:$L$34,2,FALSE), """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f>CONCATENATE("""", VLOOKUP(E30,Variables!$M$2:$N$34,2,FALSE), """")</f>
         <v>"0"</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skills" sqref="A3:A30">
       <formula1>Skill</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B30">
       <formula1>AbilityModifier</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
       <formula1>StatusModifier</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30">
       <formula1>CombatModifier</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E30">
       <formula1>Knowledge</formula1>
     </dataValidation>
   </dataValidations>
@@ -4016,39 +3908,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
@@ -4083,16 +3979,31 @@
       <c r="N1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>94</v>
+      <c r="C2" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4127,16 +4038,25 @@
       <c r="N2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>95</v>
+      <c r="C3" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4171,16 +4091,30 @@
       <c r="N3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>1000+1000*P3</f>
+        <v>2000</v>
+      </c>
+      <c r="R3" s="2">
+        <f>Q3/50</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>96</v>
+      <c r="C4" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4215,16 +4149,30 @@
       <c r="N4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>Q3+1000+1000*P4</f>
+        <v>5000</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R16" si="0">Q4/50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>97</v>
+      <c r="C5" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -4259,16 +4207,30 @@
       <c r="N5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:Q16" si="1">Q4+1000+1000*P5</f>
+        <v>9000</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>98</v>
+      <c r="C6" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -4303,12 +4265,22 @@
       <c r="N6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="1"/>
+      <c r="O6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
@@ -4339,12 +4311,22 @@
       <c r="N7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="1"/>
+      <c r="O7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
@@ -4375,12 +4357,22 @@
       <c r="N8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="1"/>
+      <c r="O8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
@@ -4411,12 +4403,22 @@
       <c r="N9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="1"/>
+      <c r="O9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
@@ -4441,14 +4443,23 @@
       <c r="L10" s="1">
         <v>8</v>
       </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="1"/>
+      <c r="O10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
@@ -4461,7 +4472,6 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
         <v>67</v>
@@ -4469,14 +4479,23 @@
       <c r="L11" s="1">
         <v>9</v>
       </c>
-      <c r="M11" s="2"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="1"/>
+      <c r="O11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
+        <v>54000</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
@@ -4489,7 +4508,6 @@
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
         <v>68</v>
@@ -4497,456 +4515,284 @@
       <c r="L12" s="1">
         <v>10</v>
       </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="1"/>
+      <c r="O12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="1">
         <v>12</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="1">
         <v>11</v>
       </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="1"/>
+      <c r="O13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>77000</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>13</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L14" s="1">
         <v>12</v>
       </c>
-      <c r="M14" s="2"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="1"/>
+      <c r="O14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="1">
         <v>14</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="1"/>
+      <c r="O15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="1"/>
+        <v>104000</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>15</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="1"/>
+      <c r="O16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="1"/>
+        <v>119000</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="0"/>
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1">
         <v>16</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="1"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="1">
         <v>17</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="1"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="1">
         <v>18</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="1"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1">
         <v>19</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="1"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="1">
         <v>20</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="1"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="1">
         <v>21</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="1"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1">
         <v>22</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="1"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="1">
         <v>23</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="1"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1">
         <v>24</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="1"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="1">
         <v>25</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="1"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="1">
         <v>26</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="1"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="1">
         <v>27</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="1"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="1">
         <v>28</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="1"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="1">
         <v>29</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="1"/>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="1">
         <v>30</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="1"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="1">
         <v>31</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="1"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="1">
         <v>32</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="1"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="1">
         <v>33</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="1">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/RadMudEditor.xlsx
+++ b/doc/RadMudEditor.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RaceBaseSkill" sheetId="8" r:id="rId1"/>
     <sheet name="RaceBaseAbility" sheetId="9" r:id="rId2"/>
     <sheet name="SkillManager" sheetId="7" r:id="rId3"/>
-    <sheet name="Variables" sheetId="6" r:id="rId4"/>
+    <sheet name="SkillAreas" sheetId="10" r:id="rId4"/>
+    <sheet name="Variables" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Ability">Variables!$C$2:$C$6</definedName>
@@ -803,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2829,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3908,10 +3909,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/doc/RadMudEditor.xlsx
+++ b/doc/RadMudEditor.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RaceBaseSkill" sheetId="8" r:id="rId1"/>
     <sheet name="RaceBaseAbility" sheetId="9" r:id="rId2"/>
     <sheet name="SkillManager" sheetId="7" r:id="rId3"/>
-    <sheet name="SkillAreas" sheetId="10" r:id="rId4"/>
-    <sheet name="Variables" sheetId="6" r:id="rId5"/>
+    <sheet name="Variables" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Ability">Variables!$C$2:$C$6</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="116">
   <si>
     <t>Athletics</t>
   </si>
@@ -804,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2826,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2845,11 +2844,16 @@
     <col min="9" max="9" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="12" width="2.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>81</v>
       </c>
@@ -2864,8 +2868,15 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -2897,267 +2908,423 @@
       <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="5"/>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="7">
+        <f>VLOOKUP(A3,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <f>VLOOKUP(B3,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f>VLOOKUP(C3,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f>VLOOKUP(D3,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <f>VLOOKUP(E3,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M16" si="0">CONCATENATE("""", G3, """")</f>
+        <v>"1"</v>
+      </c>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3:N16" si="1">CONCATENATE("""", H3, """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="O3" s="7" t="str">
+        <f t="shared" ref="O3:O16" si="2">CONCATENATE("""", I3, """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="P3" s="7" t="str">
+        <f t="shared" ref="P3:P16" si="3">CONCATENATE("""", J3, """")</f>
+        <v>"1"</v>
+      </c>
+      <c r="Q3" s="7" t="str">
+        <f t="shared" ref="Q3:Q16" si="4">CONCATENATE("""", K3, """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="7">
+        <f>VLOOKUP(A4,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <f>VLOOKUP(B4,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f>VLOOKUP(C4,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f>VLOOKUP(D4,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="K4" s="7">
+        <f>VLOOKUP(E4,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"2"</v>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P4" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"5"</v>
+      </c>
+      <c r="Q4" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7">
+        <f>VLOOKUP(A5,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
+        <f>VLOOKUP(B5,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f>VLOOKUP(C5,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="7">
+        <f>VLOOKUP(D5,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f>VLOOKUP(E5,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"4"</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"5"</v>
+      </c>
+      <c r="P5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q5" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A3,Variables!$E$2:$F$34,2,FALSE), """")</f>
+      <c r="G6" s="7">
+        <f>VLOOKUP(A6,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="7">
+        <f>VLOOKUP(B6,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f>VLOOKUP(C6,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f>VLOOKUP(D6,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f>VLOOKUP(E6,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>"7"</v>
       </c>
-      <c r="H3" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B3,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I3" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C3,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J3" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D3,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E3,Variables!$M$2:$N$34,2,FALSE), """")</f>
+      <c r="N6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q6" s="7" t="str">
+        <f t="shared" si="4"/>
         <v>"1"</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A4,Variables!$E$2:$F$34,2,FALSE), """")</f>
+      <c r="G7" s="7">
+        <f>VLOOKUP(A7,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="H7" s="7">
+        <f>VLOOKUP(B7,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f>VLOOKUP(C7,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f>VLOOKUP(D7,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f>VLOOKUP(E7,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>"7"</v>
       </c>
-      <c r="H4" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B4,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C4,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J4" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D4,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K4" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E4,Variables!$M$2:$N$34,2,FALSE), """")</f>
+      <c r="N7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q7" s="7" t="str">
+        <f t="shared" si="4"/>
         <v>"2"</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A5,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>"1"</v>
-      </c>
-      <c r="H5" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B5,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C5,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J5" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D5,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"1"</v>
-      </c>
-      <c r="K5" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E5,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A6,Variables!$E$2:$F$36,2,FALSE), """")</f>
-        <v>"34"</v>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B6,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C6,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J6" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D6,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"3"</v>
-      </c>
-      <c r="K6" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E6,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A7,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>"2"</v>
-      </c>
-      <c r="H7" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B7,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C7,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J7" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D7,Variables!$K$2:$L$34,2,FALSE), """")</f>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7">
+        <f>VLOOKUP(A8,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <f>VLOOKUP(B8,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <f>VLOOKUP(C8,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>VLOOKUP(D8,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f>VLOOKUP(E8,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="M8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"10"</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q8" s="7" t="str">
+        <f t="shared" si="4"/>
         <v>"5"</v>
       </c>
-      <c r="K7" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E7,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A8,Variables!$E$2:$F$36,2,FALSE), """")</f>
-        <v>"35"</v>
-      </c>
-      <c r="H8" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B8,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I8" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C8,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J8" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D8,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"7"</v>
-      </c>
-      <c r="K8" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E8,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A9,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>"4"</v>
-      </c>
-      <c r="H9" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B9,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I9" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C9,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"5"</v>
-      </c>
-      <c r="J9" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D9,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K9" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E9,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7">
+        <f>VLOOKUP(A9,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <f>VLOOKUP(B9,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <f>VLOOKUP(C9,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f>VLOOKUP(D9,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f>VLOOKUP(E9,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"10"</v>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q9" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"6"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -3173,30 +3340,50 @@
       <c r="E10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A10,Variables!$E$2:$F$34,2,FALSE), """")</f>
+      <c r="G10" s="7">
+        <f>VLOOKUP(A10,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
+        <f>VLOOKUP(B10,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f>VLOOKUP(C10,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J10" s="7">
+        <f>VLOOKUP(D10,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <f>VLOOKUP(E10,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>"14"</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B10,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C10,Variables!$I$2:$J$34,2,FALSE), """")</f>
+      <c r="N10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O10" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>"7"</v>
       </c>
-      <c r="J10" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D10,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K10" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E10,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q10" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>46</v>
@@ -3205,35 +3392,55 @@
         <v>46</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A11,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>"10"</v>
-      </c>
-      <c r="H11" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B11,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I11" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C11,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J11" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D11,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K11" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E11,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"5"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7">
+        <f>VLOOKUP(A11,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="H11" s="7">
+        <f>VLOOKUP(B11,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f>VLOOKUP(C11,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>VLOOKUP(D11,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <f>VLOOKUP(E11,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"34"</v>
+      </c>
+      <c r="N11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"3"</v>
+      </c>
+      <c r="Q11" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>46</v>
@@ -3242,33 +3449,53 @@
         <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(A12,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>"10"</v>
-      </c>
-      <c r="H12" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B12,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I12" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C12,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J12" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D12,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K12" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E12,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"6"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="G12" s="7">
+        <f>VLOOKUP(A12,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H12" s="7">
+        <f>VLOOKUP(B12,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <f>VLOOKUP(C12,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>VLOOKUP(D12,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="K12" s="7">
+        <f>VLOOKUP(E12,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"35"</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"7"</v>
+      </c>
+      <c r="Q12" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
@@ -3282,27 +3509,47 @@
         <v>46</v>
       </c>
       <c r="G13" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A13,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B13,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I13" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C13,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J13" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D13,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K13" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E13,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A13,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="7">
+        <f>VLOOKUP(B13,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f>VLOOKUP(C13,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>VLOOKUP(D13,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f>VLOOKUP(E13,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P13" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q13" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>46</v>
       </c>
@@ -3316,27 +3563,47 @@
         <v>46</v>
       </c>
       <c r="G14" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A14,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B14,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C14,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J14" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D14,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E14,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A14,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="7">
+        <f>VLOOKUP(B14,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <f>VLOOKUP(C14,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>VLOOKUP(D14,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <f>VLOOKUP(E14,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q14" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>46</v>
       </c>
@@ -3350,27 +3617,47 @@
         <v>46</v>
       </c>
       <c r="G15" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A15,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B15,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I15" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C15,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J15" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D15,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K15" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E15,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A15,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="7">
+        <f>VLOOKUP(B15,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f>VLOOKUP(C15,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>VLOOKUP(D15,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <f>VLOOKUP(E15,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q15" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>46</v>
       </c>
@@ -3384,27 +3671,47 @@
         <v>46</v>
       </c>
       <c r="G16" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A16,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H16" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B16,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I16" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C16,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J16" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D16,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K16" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E16,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A16,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="7">
+        <f>VLOOKUP(B16,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f>VLOOKUP(C16,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>VLOOKUP(D16,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <f>VLOOKUP(E16,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0"</v>
+      </c>
+      <c r="O16" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>"0"</v>
+      </c>
+      <c r="P16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q16" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
@@ -3418,27 +3725,47 @@
         <v>46</v>
       </c>
       <c r="G17" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A17,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B17,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I17" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C17,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J17" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D17,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K17" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E17,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A17,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="7">
+        <f>VLOOKUP(B17,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <f>VLOOKUP(C17,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f>VLOOKUP(D17,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f>VLOOKUP(E17,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="e">
+        <f t="shared" ref="M17:M30" si="5">CONCATENATE("""", G17, """")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f t="shared" ref="N17:N30" si="6">CONCATENATE("""", H17, """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="O17" s="7" t="str">
+        <f t="shared" ref="O17:O30" si="7">CONCATENATE("""", I17, """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="P17" s="7" t="str">
+        <f t="shared" ref="P17:P30" si="8">CONCATENATE("""", J17, """")</f>
+        <v>"0"</v>
+      </c>
+      <c r="Q17" s="7" t="str">
+        <f t="shared" ref="Q17:Q30" si="9">CONCATENATE("""", K17, """")</f>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>46</v>
       </c>
@@ -3452,27 +3779,47 @@
         <v>46</v>
       </c>
       <c r="G18" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A18,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B18,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C18,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J18" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D18,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K18" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E18,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A18,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="7">
+        <f>VLOOKUP(B18,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <f>VLOOKUP(C18,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f>VLOOKUP(D18,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <f>VLOOKUP(E18,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O18" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q18" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
@@ -3486,27 +3833,47 @@
         <v>46</v>
       </c>
       <c r="G19" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A19,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B19,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I19" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C19,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J19" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D19,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K19" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E19,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A19,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="7">
+        <f>VLOOKUP(B19,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <f>VLOOKUP(C19,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f>VLOOKUP(D19,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <f>VLOOKUP(E19,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O19" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q19" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
@@ -3520,27 +3887,47 @@
         <v>46</v>
       </c>
       <c r="G20" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A20,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B20,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C20,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D20,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E20,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A20,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="7">
+        <f>VLOOKUP(B20,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <f>VLOOKUP(C20,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <f>VLOOKUP(D20,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <f>VLOOKUP(E20,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O20" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P20" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q20" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
@@ -3554,27 +3941,47 @@
         <v>46</v>
       </c>
       <c r="G21" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A21,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H21" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B21,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C21,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D21,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E21,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A21,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="7">
+        <f>VLOOKUP(B21,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <f>VLOOKUP(C21,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <f>VLOOKUP(D21,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <f>VLOOKUP(E21,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O21" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P21" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q21" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
@@ -3588,27 +3995,47 @@
         <v>46</v>
       </c>
       <c r="G22" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A22,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B22,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C22,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D22,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E22,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A22,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="7">
+        <f>VLOOKUP(B22,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <f>VLOOKUP(C22,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <f>VLOOKUP(D22,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <f>VLOOKUP(E22,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O22" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P22" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q22" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>46</v>
       </c>
@@ -3622,27 +4049,47 @@
         <v>46</v>
       </c>
       <c r="G23" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A23,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B23,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C23,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D23,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E23,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A23,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" s="7">
+        <f>VLOOKUP(B23,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <f>VLOOKUP(C23,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <f>VLOOKUP(D23,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <f>VLOOKUP(E23,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N23" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P23" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q23" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>46</v>
       </c>
@@ -3656,27 +4103,47 @@
         <v>46</v>
       </c>
       <c r="G24" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A24,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H24" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B24,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I24" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C24,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J24" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D24,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K24" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E24,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A24,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="7">
+        <f>VLOOKUP(B24,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <f>VLOOKUP(C24,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <f>VLOOKUP(D24,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <f>VLOOKUP(E24,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P24" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q24" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3690,27 +4157,47 @@
         <v>46</v>
       </c>
       <c r="G25" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A25,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H25" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B25,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I25" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C25,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J25" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D25,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K25" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E25,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A25,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" s="7">
+        <f>VLOOKUP(B25,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <f>VLOOKUP(C25,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <f>VLOOKUP(D25,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <f>VLOOKUP(E25,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P25" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q25" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>46</v>
       </c>
@@ -3724,27 +4211,47 @@
         <v>46</v>
       </c>
       <c r="G26" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A26,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H26" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B26,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I26" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C26,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J26" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D26,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K26" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E26,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A26,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="7">
+        <f>VLOOKUP(B26,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <f>VLOOKUP(C26,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <f>VLOOKUP(D26,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <f>VLOOKUP(E26,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P26" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q26" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>46</v>
       </c>
@@ -3758,27 +4265,47 @@
         <v>46</v>
       </c>
       <c r="G27" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A27,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H27" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B27,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I27" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C27,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J27" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D27,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K27" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E27,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A27,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" s="7">
+        <f>VLOOKUP(B27,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <f>VLOOKUP(C27,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <f>VLOOKUP(D27,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <f>VLOOKUP(E27,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q27" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>46</v>
       </c>
@@ -3792,27 +4319,47 @@
         <v>46</v>
       </c>
       <c r="G28" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A28,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H28" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B28,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I28" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C28,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J28" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D28,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K28" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E28,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A28,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" s="7">
+        <f>VLOOKUP(B28,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <f>VLOOKUP(C28,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <f>VLOOKUP(D28,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <f>VLOOKUP(E28,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P28" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>46</v>
       </c>
@@ -3826,27 +4373,47 @@
         <v>46</v>
       </c>
       <c r="G29" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A29,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H29" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B29,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I29" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C29,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J29" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D29,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K29" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E29,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(A29,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="7">
+        <f>VLOOKUP(B29,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <f>VLOOKUP(C29,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <f>VLOOKUP(D29,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <f>VLOOKUP(E29,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P29" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q29" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
         <v>46</v>
       </c>
@@ -3860,30 +4427,494 @@
         <v>46</v>
       </c>
       <c r="G30" s="7" t="e">
-        <f>CONCATENATE("""", VLOOKUP(A30,Variables!$E$2:$F$34,2,FALSE), """")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(B30,Variables!$G$2:$H$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(C30,Variables!$I$2:$J$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="J30" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(D30,Variables!$K$2:$L$34,2,FALSE), """")</f>
-        <v>"0"</v>
-      </c>
-      <c r="K30" s="7" t="str">
-        <f>CONCATENATE("""", VLOOKUP(E30,Variables!$M$2:$N$34,2,FALSE), """")</f>
-        <v>"0"</v>
+        <f>VLOOKUP(A30,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="7">
+        <f>VLOOKUP(B30,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <f>VLOOKUP(C30,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <f>VLOOKUP(D30,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <f>VLOOKUP(E30,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>"0"</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>"0"</v>
+      </c>
+      <c r="P30" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>"0"</v>
+      </c>
+      <c r="Q30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G31" s="7" t="e">
+        <f>VLOOKUP(A31,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" s="7" t="e">
+        <f>VLOOKUP(B31,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="7" t="e">
+        <f>VLOOKUP(C31,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" s="7" t="e">
+        <f>VLOOKUP(D31,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K31" s="7" t="e">
+        <f>VLOOKUP(E31,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G32" s="7" t="e">
+        <f>VLOOKUP(A32,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" s="7" t="e">
+        <f>VLOOKUP(B32,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" s="7" t="e">
+        <f>VLOOKUP(C32,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" s="7" t="e">
+        <f>VLOOKUP(D32,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K32" s="7" t="e">
+        <f>VLOOKUP(E32,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G33" s="7" t="e">
+        <f>VLOOKUP(A33,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" s="7" t="e">
+        <f>VLOOKUP(B33,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" s="7" t="e">
+        <f>VLOOKUP(C33,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" s="7" t="e">
+        <f>VLOOKUP(D33,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K33" s="7" t="e">
+        <f>VLOOKUP(E33,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G34" s="7" t="e">
+        <f>VLOOKUP(A34,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" s="7" t="e">
+        <f>VLOOKUP(B34,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" s="7" t="e">
+        <f>VLOOKUP(C34,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" s="7" t="e">
+        <f>VLOOKUP(D34,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K34" s="7" t="e">
+        <f>VLOOKUP(E34,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G35" s="7" t="e">
+        <f>VLOOKUP(A35,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" s="7" t="e">
+        <f>VLOOKUP(B35,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I35" s="7" t="e">
+        <f>VLOOKUP(C35,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" s="7" t="e">
+        <f>VLOOKUP(D35,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K35" s="7" t="e">
+        <f>VLOOKUP(E35,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G36" s="7" t="e">
+        <f>VLOOKUP(A36,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H36" s="7" t="e">
+        <f>VLOOKUP(B36,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" s="7" t="e">
+        <f>VLOOKUP(C36,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="7" t="e">
+        <f>VLOOKUP(D36,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" s="7" t="e">
+        <f>VLOOKUP(E36,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G37" s="7" t="e">
+        <f>VLOOKUP(A37,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H37" s="7" t="e">
+        <f>VLOOKUP(B37,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I37" s="7" t="e">
+        <f>VLOOKUP(C37,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" s="7" t="e">
+        <f>VLOOKUP(D37,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K37" s="7" t="e">
+        <f>VLOOKUP(E37,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G38" s="7" t="e">
+        <f>VLOOKUP(A38,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" s="7" t="e">
+        <f>VLOOKUP(B38,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38" s="7" t="e">
+        <f>VLOOKUP(C38,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" s="7" t="e">
+        <f>VLOOKUP(D38,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K38" s="7" t="e">
+        <f>VLOOKUP(E38,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G39" s="7" t="e">
+        <f>VLOOKUP(A39,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H39" s="7" t="e">
+        <f>VLOOKUP(B39,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39" s="7" t="e">
+        <f>VLOOKUP(C39,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J39" s="7" t="e">
+        <f>VLOOKUP(D39,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K39" s="7" t="e">
+        <f>VLOOKUP(E39,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G40" s="7" t="e">
+        <f>VLOOKUP(A40,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H40" s="7" t="e">
+        <f>VLOOKUP(B40,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" s="7" t="e">
+        <f>VLOOKUP(C40,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J40" s="7" t="e">
+        <f>VLOOKUP(D40,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K40" s="7" t="e">
+        <f>VLOOKUP(E40,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G41" s="7" t="e">
+        <f>VLOOKUP(A41,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H41" s="7" t="e">
+        <f>VLOOKUP(B41,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" s="7" t="e">
+        <f>VLOOKUP(C41,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J41" s="7" t="e">
+        <f>VLOOKUP(D41,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K41" s="7" t="e">
+        <f>VLOOKUP(E41,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G42" s="7" t="e">
+        <f>VLOOKUP(A42,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H42" s="7" t="e">
+        <f>VLOOKUP(B42,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I42" s="7" t="e">
+        <f>VLOOKUP(C42,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J42" s="7" t="e">
+        <f>VLOOKUP(D42,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K42" s="7" t="e">
+        <f>VLOOKUP(E42,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G43" s="7" t="e">
+        <f>VLOOKUP(A43,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H43" s="7" t="e">
+        <f>VLOOKUP(B43,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I43" s="7" t="e">
+        <f>VLOOKUP(C43,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J43" s="7" t="e">
+        <f>VLOOKUP(D43,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K43" s="7" t="e">
+        <f>VLOOKUP(E43,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G44" s="7" t="e">
+        <f>VLOOKUP(A44,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H44" s="7" t="e">
+        <f>VLOOKUP(B44,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I44" s="7" t="e">
+        <f>VLOOKUP(C44,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J44" s="7" t="e">
+        <f>VLOOKUP(D44,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K44" s="7" t="e">
+        <f>VLOOKUP(E44,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G45" s="7" t="e">
+        <f>VLOOKUP(A45,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H45" s="7" t="e">
+        <f>VLOOKUP(B45,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I45" s="7" t="e">
+        <f>VLOOKUP(C45,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J45" s="7" t="e">
+        <f>VLOOKUP(D45,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K45" s="7" t="e">
+        <f>VLOOKUP(E45,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G46" s="7" t="e">
+        <f>VLOOKUP(A46,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H46" s="7" t="e">
+        <f>VLOOKUP(B46,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I46" s="7" t="e">
+        <f>VLOOKUP(C46,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J46" s="7" t="e">
+        <f>VLOOKUP(D46,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K46" s="7" t="e">
+        <f>VLOOKUP(E46,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G47" s="7" t="e">
+        <f>VLOOKUP(A47,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H47" s="7" t="e">
+        <f>VLOOKUP(B47,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I47" s="7" t="e">
+        <f>VLOOKUP(C47,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J47" s="7" t="e">
+        <f>VLOOKUP(D47,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K47" s="7" t="e">
+        <f>VLOOKUP(E47,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G48" s="7" t="e">
+        <f>VLOOKUP(A48,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H48" s="7" t="e">
+        <f>VLOOKUP(B48,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I48" s="7" t="e">
+        <f>VLOOKUP(C48,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J48" s="7" t="e">
+        <f>VLOOKUP(D48,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K48" s="7" t="e">
+        <f>VLOOKUP(E48,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G49" s="7" t="e">
+        <f>VLOOKUP(A49,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H49" s="7" t="e">
+        <f>VLOOKUP(B49,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I49" s="7" t="e">
+        <f>VLOOKUP(C49,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J49" s="7" t="e">
+        <f>VLOOKUP(D49,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K49" s="7" t="e">
+        <f>VLOOKUP(E49,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G50" s="7" t="e">
+        <f>VLOOKUP(A50,Variables!$E$2:$F$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H50" s="7" t="e">
+        <f>VLOOKUP(B50,Variables!$G$2:$H$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I50" s="7" t="e">
+        <f>VLOOKUP(C50,Variables!$I$2:$J$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J50" s="7" t="e">
+        <f>VLOOKUP(D50,Variables!$K$2:$L$50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K50" s="7" t="e">
+        <f>VLOOKUP(E50,Variables!$M$2:$N$50,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState ref="A3:Q16">
+    <sortCondition ref="G3:G16"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skills" sqref="A3:A30">
@@ -3909,24 +4940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/doc/RadMudEditor.xlsx
+++ b/doc/RadMudEditor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="RaceBaseSkill" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="BodyPartList">BodyPart!$B$3:$B$100</definedName>
     <definedName name="CombatModifier">Variables!$I$2:$I$52</definedName>
     <definedName name="Knowledge">Variables!$K$2:$K$52</definedName>
+    <definedName name="KnowledgeVnum">Variables!$K$2:$L$52</definedName>
     <definedName name="MaterialList">Material!$C$3:$C$100</definedName>
     <definedName name="ModelList">Model!$C$3:$C$100</definedName>
     <definedName name="ModelListVnum">Model!$A$3:$A$52,Model!$C$3:$C$52</definedName>
@@ -35,6 +36,8 @@
     <definedName name="ResourceList">Variables!$Q$2:$Q$52</definedName>
     <definedName name="ResourceListVnum">Variables!$Q$2:$R$52</definedName>
     <definedName name="Skill">Variables!$E$2:$E$52</definedName>
+    <definedName name="SkillRank">Variables!$M$2:$M$16</definedName>
+    <definedName name="SkillRankVnum">Variables!$M$2:$N$16</definedName>
     <definedName name="StatusModifier">Variables!$G$2:$G$10</definedName>
     <definedName name="ToolTypeList">Variables!$O$2:$O$52</definedName>
     <definedName name="ToolTypeListVnum">Variables!$O$2:$P$52</definedName>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="575">
   <si>
     <t>Athletics</t>
   </si>
@@ -2023,12 +2026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2036,15 +2033,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2068,6 +2056,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2076,12 +2085,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2399,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4110,29 +4113,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="37"/>
+    <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="29" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4140,31 +4143,31 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="29" t="s">
         <v>543</v>
       </c>
     </row>
@@ -4172,31 +4175,31 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="30" t="s">
         <v>519</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="29" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4204,31 +4207,31 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="29" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4236,31 +4239,31 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="29" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4268,31 +4271,31 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="30" t="s">
         <v>511</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="29" t="s">
         <v>518</v>
       </c>
     </row>
@@ -4300,31 +4303,31 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="29" t="s">
         <v>535</v>
       </c>
     </row>
@@ -4332,31 +4335,31 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="29" t="s">
         <v>552</v>
       </c>
     </row>
@@ -4585,95 +4588,107 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD50"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="15"/>
-    <col min="7" max="7" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="15"/>
-    <col min="14" max="14" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="15"/>
-    <col min="25" max="25" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="13"/>
+    <col min="25" max="25" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="19" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="19" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="19" t="s">
+      <c r="S1" s="35"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="36"/>
-    </row>
-    <row r="2" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="35"/>
+    </row>
+    <row r="2" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -4691,10 +4706,10 @@
       <c r="F2" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="10" t="s">
@@ -4712,60 +4727,72 @@
       <c r="M2" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AC2" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AD2" s="18" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="AE2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -4783,8 +4810,8 @@
       <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24">
+      <c r="G3" s="20"/>
+      <c r="H3" s="19">
         <f>A3</f>
         <v>1</v>
       </c>
@@ -4804,66 +4831,80 @@
       <c r="M3" s="11">
         <v>0</v>
       </c>
-      <c r="N3" s="25">
-        <f>IF(ISBLANK(G3),0,INDEX(ToolTypeListVnum, MATCH(G3,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="20">
+        <f t="shared" ref="N3:N50" si="1">IF(ISBLANK(G3),0,INDEX(ToolTypeListVnum, MATCH(G3,ToolTypeList,0), 2))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>357</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="30">
-        <f t="shared" ref="R3:R50" si="1">INDEX(ProductionListVnum, MATCH(O3,ProductionList,0), 1)</f>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="25">
+        <f t="shared" ref="R3:R50" si="2">INDEX(ProductionListVnum, MATCH(O3,ProductionList,0), 1)</f>
         <v>1</v>
       </c>
       <c r="S3" s="11">
-        <f t="shared" ref="S3:S50" si="2">INDEX(ModelListVnum, MATCH(P3,ModelList,0), 1)</f>
+        <f t="shared" ref="S3:S50" si="3">INDEX(ModelListVnum, MATCH(P3,ModelList,0), 1)</f>
         <v>4000</v>
       </c>
-      <c r="T3" s="25">
-        <v>1</v>
-      </c>
-      <c r="U3" s="24" t="s">
+      <c r="T3" s="20">
+        <v>1</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="W3" s="30">
-        <f t="shared" ref="W3:W50" si="3">INDEX(ProductionListVnum, MATCH(U3,ProductionList,0), 1)</f>
-        <v>1</v>
-      </c>
-      <c r="X3" s="25">
-        <f t="shared" ref="X3:X50" si="4">INDEX(ToolTypeListVnum, MATCH(V3,ToolTypeList,0), 2)</f>
+      <c r="W3" s="25">
+        <f t="shared" ref="W3:W50" si="4">INDEX(ProductionListVnum, MATCH(U3,ProductionList,0), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="20">
+        <f t="shared" ref="X3:X50" si="5">INDEX(ToolTypeListVnum, MATCH(V3,ToolTypeList,0), 2)</f>
         <v>10</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="19" t="s">
         <v>357</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="AA3" s="32">
+      <c r="AA3" s="27">
         <v>2</v>
       </c>
-      <c r="AB3" s="30">
-        <f t="shared" ref="AB3:AB50" si="5">INDEX(ProductionListVnum, MATCH(Y3,ProductionList,0), 1)</f>
+      <c r="AB3" s="25">
+        <f t="shared" ref="AB3:AB50" si="6">INDEX(ProductionListVnum, MATCH(Y3,ProductionList,0), 1)</f>
         <v>1</v>
       </c>
       <c r="AC3" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z3,ResourceList,0), 2)</f>
+        <f t="shared" ref="AC3:AC50" si="7">INDEX(ResourceListVnum, MATCH(Z3,ResourceList,0), 2)</f>
         <v>5</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AD3" s="20">
         <f>AA3</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="AE3" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG3" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE3,ProductionList,0), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AH3" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF3,Knowledge,0), 2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -4881,9 +4922,9 @@
       <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24">
-        <f t="shared" ref="H4:H50" si="6">A4</f>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19">
+        <f t="shared" ref="H4:H50" si="8">A4</f>
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -4902,66 +4943,80 @@
       <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="25">
-        <f>IF(ISBLANK(G4),0,INDEX(ToolTypeListVnum, MATCH(G4,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="19" t="s">
         <v>326</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="30">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="25">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S4" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7006</v>
       </c>
-      <c r="T4" s="25">
-        <v>1</v>
-      </c>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="20">
+        <v>1</v>
+      </c>
+      <c r="U4" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="W4" s="30">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="25">
+      <c r="W4" s="25">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X4" s="20">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="Y4" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="AA4" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="30">
-        <f t="shared" si="5"/>
+      <c r="AA4" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="25">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC4" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z4,ResourceList,0), 2)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="AD4" s="25">
-        <f t="shared" ref="AD4:AD50" si="7">AA4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="AD4" s="20">
+        <f t="shared" ref="AD4:AD50" si="9">AA4</f>
+        <v>1</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG4" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE4,ProductionList,0), 1)</f>
+        <v>2</v>
+      </c>
+      <c r="AH4" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF4,Knowledge,0), 2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4979,89 +5034,103 @@
       <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="19">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>30</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="3"/>
+        <v>3502</v>
+      </c>
+      <c r="T5" s="20">
+        <v>1</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="W5" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X5" s="20">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="25">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>30</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25">
-        <f>IF(ISBLANK(G5),0,INDEX(ToolTypeListVnum, MATCH(G5,ToolTypeList,0), 2))</f>
-        <v>30</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="30">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S5" s="11">
-        <f t="shared" si="2"/>
-        <v>3502</v>
-      </c>
-      <c r="T5" s="25">
-        <v>1</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="V5" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="W5" s="30">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="X5" s="25">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y5" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA5" s="32">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="30">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="AC5" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z5,ResourceList,0), 2)</f>
-        <v>2</v>
-      </c>
-      <c r="AD5" s="25">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="AD5" s="20">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG5" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE5,ProductionList,0), 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AH5" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF5,Knowledge,0), 2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -5079,583 +5148,667 @@
       <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24">
+      <c r="G6" s="20"/>
+      <c r="H6" s="19">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <v>30</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="3"/>
+        <v>3101</v>
+      </c>
+      <c r="T6" s="20">
+        <v>6</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="W6" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X6" s="20">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="25">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG6" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE6,ProductionList,0), 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AH6" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF6,Knowledge,0), 2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>15</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="25">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="3"/>
+        <v>3102</v>
+      </c>
+      <c r="T7" s="20">
+        <v>4</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="W7" s="25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X7" s="20">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="25">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11">
-        <v>30</v>
-      </c>
-      <c r="M6" s="11">
-        <v>1</v>
-      </c>
-      <c r="N6" s="25">
-        <f>IF(ISBLANK(G6),0,INDEX(ToolTypeListVnum, MATCH(G6,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="30">
+      <c r="AC7" s="11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AD7" s="20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG7" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE7,ProductionList,0), 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AH7" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF7,Knowledge,0), 2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11">
+        <v>15</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S6" s="11">
+        <v>31</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="25">
         <f t="shared" si="2"/>
-        <v>3101</v>
-      </c>
-      <c r="T6" s="25">
         <v>6</v>
       </c>
-      <c r="U6" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="W6" s="30">
+      <c r="S8" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="X6" s="25">
+        <v>7013</v>
+      </c>
+      <c r="T8" s="20">
+        <v>12</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="W8" s="25">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA6" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="30">
+        <v>3</v>
+      </c>
+      <c r="X8" s="20">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AC6" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z6,ResourceList,0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24">
+      <c r="Z8" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="25">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11">
-        <v>15</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
-        <f>IF(ISBLANK(G7),0,INDEX(ToolTypeListVnum, MATCH(G7,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="30">
+      <c r="AC8" s="11">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AD8" s="20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG8" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE8,ProductionList,0), 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AH8" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF8,Knowledge,0), 2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>60</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11">
+        <v>60</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S7" s="11">
+        <v>30</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="25">
         <f t="shared" si="2"/>
-        <v>3102</v>
-      </c>
-      <c r="T7" s="25">
+        <v>7</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="3"/>
+        <v>7016</v>
+      </c>
+      <c r="T9" s="20">
+        <v>1</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="W9" s="25">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="U7" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="V7" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="W7" s="30">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="X7" s="25">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="Y7" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="AA7" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="30">
+      <c r="X9" s="20">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AC7" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z7,ResourceList,0), 2)</f>
-        <v>6</v>
-      </c>
-      <c r="AD7" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>15</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="H8" s="24">
+      <c r="Z9" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="25">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="AC9" s="11">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AD9" s="20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG9" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE9,ProductionList,0), 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AH9" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF9,Knowledge,0), 2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>30</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11">
-        <v>15</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="25">
-        <f>IF(ISBLANK(G8),0,INDEX(ToolTypeListVnum, MATCH(G8,ToolTypeList,0), 2))</f>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>30</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="O8" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="30">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="S8" s="11">
+      <c r="O10" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="25">
         <f t="shared" si="2"/>
-        <v>7013</v>
-      </c>
-      <c r="T8" s="25">
+        <v>8</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="3"/>
+        <v>7012</v>
+      </c>
+      <c r="T10" s="20">
+        <v>1</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="W10" s="25">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X10" s="20">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA10" s="28">
         <v>12</v>
       </c>
-      <c r="U8" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="V8" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="W8" s="30">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="X8" s="25">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="Y8" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="AA8" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="30">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AC8" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z8,ResourceList,0), 2)</f>
-        <v>4</v>
-      </c>
-      <c r="AD8" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>60</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="AB10" s="25">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="0"/>
+      <c r="AC10" s="11">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="20">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG10" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE10,ProductionList,0), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AH10" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF10,Knowledge,0), 2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>30</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
+        <v>30</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" si="3"/>
+        <v>7018</v>
+      </c>
+      <c r="T11" s="20">
         <v>4</v>
       </c>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>60</v>
-      </c>
-      <c r="M9" s="11">
-        <v>1</v>
-      </c>
-      <c r="N9" s="25">
-        <f>IF(ISBLANK(G9),0,INDEX(ToolTypeListVnum, MATCH(G9,ToolTypeList,0), 2))</f>
-        <v>30</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="30">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="2"/>
-        <v>7016</v>
-      </c>
-      <c r="T9" s="25">
-        <v>1</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="V9" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="W9" s="30">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X9" s="25">
+      <c r="U11" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="V11" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="W11" s="25">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y9" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11" s="20">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z11" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="AA9" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="30">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AC9" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z9,ResourceList,0), 2)</f>
-        <v>3</v>
-      </c>
-      <c r="AD9" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>30</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="H10" s="24">
+      <c r="AA11" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="25">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>30</v>
-      </c>
-      <c r="M10" s="11">
-        <v>1</v>
-      </c>
-      <c r="N10" s="25">
-        <f>IF(ISBLANK(G10),0,INDEX(ToolTypeListVnum, MATCH(G10,ToolTypeList,0), 2))</f>
-        <v>31</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="30">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="S10" s="11">
-        <f t="shared" si="2"/>
-        <v>7012</v>
-      </c>
-      <c r="T10" s="25">
-        <v>1</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="V10" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="W10" s="30">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X10" s="25">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y10" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA10" s="33">
-        <v>12</v>
-      </c>
-      <c r="AB10" s="30">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AC10" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z10,ResourceList,0), 2)</f>
+      <c r="AC11" s="11">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AD10" s="25">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="AD11" s="20">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG11" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE11,ProductionList,0), 1)</f>
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>30</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>30</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
-        <f>IF(ISBLANK(G11),0,INDEX(ToolTypeListVnum, MATCH(G11,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="30">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="S11" s="11">
-        <f t="shared" si="2"/>
-        <v>7018</v>
-      </c>
-      <c r="T11" s="25">
-        <v>4</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="V11" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="W11" s="30">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X11" s="25">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="Y11" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA11" s="25">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="30">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AC11" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z11,ResourceList,0), 2)</f>
-        <v>3</v>
-      </c>
-      <c r="AD11" s="25">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="AH11" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF11,Knowledge,0), 2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -5673,9 +5826,9 @@
       <c r="F12" s="11">
         <v>0</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24">
-        <f t="shared" si="6"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="19">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -5694,66 +5847,80 @@
       <c r="M12" s="11">
         <v>0</v>
       </c>
-      <c r="N12" s="25">
-        <f>IF(ISBLANK(G12),0,INDEX(ToolTypeListVnum, MATCH(G12,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="24" t="s">
+      <c r="N12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>392</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="30">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="25">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="S12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
-      <c r="T12" s="25">
+      <c r="T12" s="20">
         <v>15</v>
       </c>
-      <c r="U12" s="24" t="s">
+      <c r="U12" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="W12" s="30">
-        <f t="shared" si="3"/>
+      <c r="W12" s="25">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X12" s="25">
-        <f t="shared" si="4"/>
+      <c r="X12" s="20">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="Y12" s="24" t="s">
+      <c r="Y12" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="AA12" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="30">
-        <f t="shared" si="5"/>
+      <c r="AA12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="25">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AC12" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z12,ResourceList,0), 2)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="AD12" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="AD12" s="20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG12" s="25">
+        <f>INDEX(ProductionListVnum, MATCH(AE12,ProductionList,0), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AH12" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF12,Knowledge,0), 2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
       <c r="B13" s="11"/>
@@ -5761,9 +5928,9 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24">
-        <f t="shared" si="6"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I13" s="11"/>
@@ -5774,60 +5941,72 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="25">
-        <f>IF(ISBLANK(G13),0,INDEX(ToolTypeListVnum, MATCH(G13,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="24"/>
+      <c r="N13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="19"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S13" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T13" s="25"/>
-      <c r="U13" s="24" t="s">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T13" s="20"/>
+      <c r="U13" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="V13" s="25" t="s">
+      <c r="V13" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="W13" s="30">
-        <f t="shared" si="3"/>
+      <c r="W13" s="25">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X13" s="25">
-        <f t="shared" si="4"/>
+      <c r="X13" s="20">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="Y13" s="24" t="s">
+      <c r="Y13" s="19" t="s">
         <v>282</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="AA13" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="30">
-        <f t="shared" si="5"/>
+      <c r="AA13" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="25">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AC13" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z13,ResourceList,0), 2)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="AD13" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="AD13" s="20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE13,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF13,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
       <c r="B14" s="11"/>
@@ -5835,9 +6014,9 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24">
-        <f t="shared" si="6"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I14" s="11"/>
@@ -5848,60 +6027,72 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="25">
-        <f>IF(ISBLANK(G14),0,INDEX(ToolTypeListVnum, MATCH(G14,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="24"/>
+      <c r="N14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="19"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S14" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="24" t="s">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T14" s="20"/>
+      <c r="U14" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="V14" s="25" t="s">
+      <c r="V14" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="W14" s="30">
-        <f t="shared" si="3"/>
+      <c r="W14" s="25">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X14" s="25">
-        <f t="shared" si="4"/>
+      <c r="X14" s="20">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="Y14" s="24" t="s">
+      <c r="Y14" s="19" t="s">
         <v>392</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="AA14" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="30">
-        <f t="shared" si="5"/>
+      <c r="AA14" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="25">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AC14" s="11">
-        <f>INDEX(ResourceListVnum, MATCH(Z14,ResourceList,0), 2)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="AD14" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="AD14" s="20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE14,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF14,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
       <c r="B15" s="11"/>
@@ -5909,9 +6100,9 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24">
-        <f t="shared" si="6"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I15" s="11"/>
@@ -5922,54 +6113,66 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="25">
-        <f>IF(ISBLANK(G15),0,INDEX(ToolTypeListVnum, MATCH(G15,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="24"/>
+      <c r="N15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="19"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S15" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T15" s="25"/>
-      <c r="U15" s="24" t="s">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T15" s="20"/>
+      <c r="U15" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="V15" s="25" t="s">
+      <c r="V15" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="W15" s="30">
-        <f t="shared" si="3"/>
+      <c r="W15" s="25">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X15" s="25">
-        <f t="shared" si="4"/>
+      <c r="X15" s="20">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="Y15" s="24"/>
+      <c r="Y15" s="19"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC15" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z15,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD15" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD15" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG15" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE15,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH15" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF15,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
       <c r="B16" s="11"/>
@@ -5977,9 +6180,9 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="24">
-        <f t="shared" si="6"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I16" s="11"/>
@@ -5990,54 +6193,66 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="25">
-        <f>IF(ISBLANK(G16),0,INDEX(ToolTypeListVnum, MATCH(G16,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="24"/>
+      <c r="N16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="19"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S16" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T16" s="25"/>
-      <c r="U16" s="24" t="s">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T16" s="20"/>
+      <c r="U16" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="V16" s="25" t="s">
+      <c r="V16" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="W16" s="30">
-        <f t="shared" si="3"/>
+      <c r="W16" s="25">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="X16" s="25">
-        <f t="shared" si="4"/>
+      <c r="X16" s="20">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="Y16" s="24"/>
+      <c r="Y16" s="19"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC16" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z16,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD16" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD16" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG16" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE16,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH16" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF16,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
       <c r="B17" s="11"/>
@@ -6045,9 +6260,9 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24">
-        <f t="shared" si="6"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I17" s="11"/>
@@ -6058,54 +6273,66 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="25">
-        <f>IF(ISBLANK(G17),0,INDEX(ToolTypeListVnum, MATCH(G17,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="24"/>
+      <c r="N17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="19"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S17" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="24" t="s">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T17" s="20"/>
+      <c r="U17" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="V17" s="25" t="s">
+      <c r="V17" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="W17" s="30">
-        <f t="shared" si="3"/>
+      <c r="W17" s="25">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="X17" s="25">
-        <f t="shared" si="4"/>
+      <c r="X17" s="20">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="Y17" s="24"/>
+      <c r="Y17" s="19"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC17" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z17,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD17" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD17" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG17" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE17,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH17" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF17,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
       <c r="B18" s="11"/>
@@ -6113,9 +6340,9 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24">
-        <f t="shared" si="6"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I18" s="11"/>
@@ -6126,54 +6353,66 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="25">
-        <f>IF(ISBLANK(G18),0,INDEX(ToolTypeListVnum, MATCH(G18,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="24"/>
+      <c r="N18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="19"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S18" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="24" t="s">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T18" s="20"/>
+      <c r="U18" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="V18" s="25" t="s">
+      <c r="V18" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="W18" s="30">
-        <f t="shared" si="3"/>
+      <c r="W18" s="25">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="X18" s="25">
-        <f t="shared" si="4"/>
+      <c r="X18" s="20">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="Y18" s="24"/>
+      <c r="Y18" s="19"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC18" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z18,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD18" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD18" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG18" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE18,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF18,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
       <c r="B19" s="11"/>
@@ -6181,9 +6420,9 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24">
-        <f t="shared" si="6"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I19" s="11"/>
@@ -6194,54 +6433,66 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="25">
-        <f>IF(ISBLANK(G19),0,INDEX(ToolTypeListVnum, MATCH(G19,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="24"/>
+      <c r="N19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="19"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S19" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="24" t="s">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T19" s="20"/>
+      <c r="U19" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="V19" s="25" t="s">
+      <c r="V19" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="W19" s="30">
-        <f t="shared" si="3"/>
+      <c r="W19" s="25">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="X19" s="25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y19" s="24"/>
+      <c r="X19" s="20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="19"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC19" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z19,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD19" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD19" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG19" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE19,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF19,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
       <c r="B20" s="11"/>
@@ -6249,9 +6500,9 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24">
-        <f t="shared" si="6"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I20" s="11"/>
@@ -6262,50 +6513,62 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="25">
-        <f>IF(ISBLANK(G20),0,INDEX(ToolTypeListVnum, MATCH(G20,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="24"/>
+      <c r="N20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="19"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S20" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X20" s="25" t="e">
+      <c r="T20" s="20"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y20" s="24"/>
+      <c r="X20" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="19"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC20" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z20,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD20" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD20" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE20,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF20,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
         <v>19</v>
       </c>
       <c r="B21" s="11"/>
@@ -6313,9 +6576,9 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24">
-        <f t="shared" si="6"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I21" s="11"/>
@@ -6326,50 +6589,62 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="25">
-        <f>IF(ISBLANK(G21),0,INDEX(ToolTypeListVnum, MATCH(G21,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="24"/>
+      <c r="N21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="19"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S21" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X21" s="25" t="e">
+      <c r="T21" s="20"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y21" s="24"/>
+      <c r="X21" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="19"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC21" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z21,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD21" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG21" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE21,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF21,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
         <v>20</v>
       </c>
       <c r="B22" s="11"/>
@@ -6377,9 +6652,9 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24">
-        <f t="shared" si="6"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="19">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I22" s="11"/>
@@ -6390,50 +6665,62 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="25">
-        <f>IF(ISBLANK(G22),0,INDEX(ToolTypeListVnum, MATCH(G22,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="24"/>
+      <c r="N22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="19"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S22" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X22" s="25" t="e">
+      <c r="T22" s="20"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y22" s="24"/>
+      <c r="X22" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="19"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC22" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z22,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD22" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG22" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE22,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF22,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
         <v>21</v>
       </c>
       <c r="B23" s="11"/>
@@ -6441,9 +6728,9 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24">
-        <f t="shared" si="6"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I23" s="11"/>
@@ -6454,50 +6741,62 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="25">
-        <f>IF(ISBLANK(G23),0,INDEX(ToolTypeListVnum, MATCH(G23,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="24"/>
+      <c r="N23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="19"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S23" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" s="25"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X23" s="25" t="e">
+      <c r="T23" s="20"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y23" s="24"/>
+      <c r="X23" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC23" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z23,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD23" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD23" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG23" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE23,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF23,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
       <c r="B24" s="11"/>
@@ -6505,9 +6804,9 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24">
-        <f t="shared" si="6"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I24" s="11"/>
@@ -6518,50 +6817,62 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="25">
-        <f>IF(ISBLANK(G24),0,INDEX(ToolTypeListVnum, MATCH(G24,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="24"/>
+      <c r="N24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="19"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S24" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T24" s="25"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X24" s="25" t="e">
+      <c r="T24" s="20"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y24" s="24"/>
+      <c r="X24" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" s="19"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC24" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z24,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD24" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG24" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE24,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF24,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
       <c r="B25" s="11"/>
@@ -6569,9 +6880,9 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24">
-        <f t="shared" si="6"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I25" s="11"/>
@@ -6582,50 +6893,62 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="25">
-        <f>IF(ISBLANK(G25),0,INDEX(ToolTypeListVnum, MATCH(G25,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="24"/>
+      <c r="N25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="19"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S25" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T25" s="25"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X25" s="25" t="e">
+      <c r="T25" s="20"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y25" s="24"/>
+      <c r="X25" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" s="19"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC25" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z25,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD25" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG25" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE25,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH25" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF25,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
       <c r="B26" s="11"/>
@@ -6633,9 +6956,9 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24">
-        <f t="shared" si="6"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="19">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I26" s="11"/>
@@ -6646,50 +6969,62 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="25">
-        <f>IF(ISBLANK(G26),0,INDEX(ToolTypeListVnum, MATCH(G26,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="24"/>
+      <c r="N26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="19"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S26" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T26" s="25"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X26" s="25" t="e">
+      <c r="T26" s="20"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y26" s="24"/>
+      <c r="X26" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" s="19"/>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC26" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z26,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD26" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD26" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG26" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE26,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF26,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
         <v>25</v>
       </c>
       <c r="B27" s="11"/>
@@ -6697,9 +7032,9 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24">
-        <f t="shared" si="6"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="19">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I27" s="11"/>
@@ -6710,50 +7045,62 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="25">
-        <f>IF(ISBLANK(G27),0,INDEX(ToolTypeListVnum, MATCH(G27,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="24"/>
+      <c r="N27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="19"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S27" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T27" s="25"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X27" s="25" t="e">
+      <c r="T27" s="20"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y27" s="24"/>
+      <c r="X27" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" s="19"/>
       <c r="Z27" s="11"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC27" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z27,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD27" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD27" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG27" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE27,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF27,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
         <v>26</v>
       </c>
       <c r="B28" s="11"/>
@@ -6761,9 +7108,9 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24">
-        <f t="shared" si="6"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I28" s="11"/>
@@ -6774,50 +7121,62 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="25">
-        <f>IF(ISBLANK(G28),0,INDEX(ToolTypeListVnum, MATCH(G28,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="24"/>
+      <c r="N28" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="19"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S28" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T28" s="25"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X28" s="25" t="e">
+      <c r="T28" s="20"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y28" s="24"/>
+      <c r="X28" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC28" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z28,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD28" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG28" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE28,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF28,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
         <v>27</v>
       </c>
       <c r="B29" s="11"/>
@@ -6825,9 +7184,9 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24">
-        <f t="shared" si="6"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="19">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I29" s="11"/>
@@ -6838,50 +7197,62 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="25">
-        <f>IF(ISBLANK(G29),0,INDEX(ToolTypeListVnum, MATCH(G29,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="24"/>
+      <c r="N29" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="19"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S29" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T29" s="25"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X29" s="25" t="e">
+      <c r="T29" s="20"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y29" s="24"/>
+      <c r="X29" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" s="19"/>
       <c r="Z29" s="11"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC29" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z29,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD29" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD29" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG29" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE29,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF29,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
         <v>28</v>
       </c>
       <c r="B30" s="11"/>
@@ -6889,9 +7260,9 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="24">
-        <f t="shared" si="6"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="19">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="I30" s="11"/>
@@ -6902,50 +7273,62 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="25">
-        <f>IF(ISBLANK(G30),0,INDEX(ToolTypeListVnum, MATCH(G30,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="24"/>
+      <c r="N30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="19"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S30" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T30" s="25"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X30" s="25" t="e">
+      <c r="T30" s="20"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y30" s="24"/>
+      <c r="X30" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" s="19"/>
       <c r="Z30" s="11"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC30" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z30,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD30" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD30" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG30" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE30,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF30,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
         <v>29</v>
       </c>
       <c r="B31" s="11"/>
@@ -6953,9 +7336,9 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="24">
-        <f t="shared" si="6"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="19">
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="I31" s="11"/>
@@ -6966,50 +7349,62 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="25">
-        <f>IF(ISBLANK(G31),0,INDEX(ToolTypeListVnum, MATCH(G31,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="24"/>
+      <c r="N31" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="19"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S31" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T31" s="25"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X31" s="25" t="e">
+      <c r="T31" s="20"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y31" s="24"/>
+      <c r="X31" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" s="19"/>
       <c r="Z31" s="11"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC31" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z31,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD31" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD31" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG31" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE31,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH31" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF31,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
         <v>30</v>
       </c>
       <c r="B32" s="11"/>
@@ -7017,9 +7412,9 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="24">
-        <f t="shared" si="6"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="I32" s="11"/>
@@ -7030,50 +7425,62 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="25">
-        <f>IF(ISBLANK(G32),0,INDEX(ToolTypeListVnum, MATCH(G32,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="24"/>
+      <c r="N32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="19"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S32" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T32" s="25"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X32" s="25" t="e">
+      <c r="T32" s="20"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y32" s="24"/>
+      <c r="X32" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" s="19"/>
       <c r="Z32" s="11"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC32" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z32,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD32" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD32" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG32" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE32,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH32" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF32,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
         <v>31</v>
       </c>
       <c r="B33" s="11"/>
@@ -7081,9 +7488,9 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="24">
-        <f t="shared" si="6"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="19">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="I33" s="11"/>
@@ -7094,50 +7501,62 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="25">
-        <f>IF(ISBLANK(G33),0,INDEX(ToolTypeListVnum, MATCH(G33,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="24"/>
+      <c r="N33" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="19"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S33" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T33" s="25"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X33" s="25" t="e">
+      <c r="T33" s="20"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y33" s="24"/>
+      <c r="X33" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" s="19"/>
       <c r="Z33" s="11"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC33" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z33,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD33" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD33" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG33" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE33,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH33" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF33,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
         <v>32</v>
       </c>
       <c r="B34" s="11"/>
@@ -7145,9 +7564,9 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="24">
-        <f t="shared" si="6"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="19">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="I34" s="11"/>
@@ -7158,50 +7577,62 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="25">
-        <f>IF(ISBLANK(G34),0,INDEX(ToolTypeListVnum, MATCH(G34,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="24"/>
+      <c r="N34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="19"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S34" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T34" s="25"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X34" s="25" t="e">
+      <c r="T34" s="20"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y34" s="24"/>
+      <c r="X34" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" s="19"/>
       <c r="Z34" s="11"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC34" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z34,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD34" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD34" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG34" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE34,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH34" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF34,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
         <v>33</v>
       </c>
       <c r="B35" s="11"/>
@@ -7209,9 +7640,9 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="24">
-        <f t="shared" si="6"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19">
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="I35" s="11"/>
@@ -7222,50 +7653,62 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="25">
-        <f>IF(ISBLANK(G35),0,INDEX(ToolTypeListVnum, MATCH(G35,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="24"/>
+      <c r="N35" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="19"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S35" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T35" s="25"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X35" s="25" t="e">
+      <c r="T35" s="20"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y35" s="24"/>
+      <c r="X35" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" s="19"/>
       <c r="Z35" s="11"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC35" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z35,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD35" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD35" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG35" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE35,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH35" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF35,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
         <v>34</v>
       </c>
       <c r="B36" s="11"/>
@@ -7273,9 +7716,9 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="24">
-        <f t="shared" si="6"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="19">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="I36" s="11"/>
@@ -7286,50 +7729,62 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="25">
-        <f>IF(ISBLANK(G36),0,INDEX(ToolTypeListVnum, MATCH(G36,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="24"/>
+      <c r="N36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="19"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S36" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T36" s="25"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X36" s="25" t="e">
+      <c r="T36" s="20"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y36" s="24"/>
+      <c r="X36" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" s="19"/>
       <c r="Z36" s="11"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC36" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z36,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD36" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD36" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG36" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE36,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH36" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF36,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
         <v>35</v>
       </c>
       <c r="B37" s="11"/>
@@ -7337,9 +7792,9 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="24">
-        <f t="shared" si="6"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="I37" s="11"/>
@@ -7350,50 +7805,62 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="25">
-        <f>IF(ISBLANK(G37),0,INDEX(ToolTypeListVnum, MATCH(G37,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="24"/>
+      <c r="N37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="19"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S37" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T37" s="25"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X37" s="25" t="e">
+      <c r="T37" s="20"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y37" s="24"/>
+      <c r="X37" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" s="19"/>
       <c r="Z37" s="11"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC37" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z37,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD37" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD37" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG37" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE37,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH37" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF37,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
         <v>36</v>
       </c>
       <c r="B38" s="11"/>
@@ -7401,9 +7868,9 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="24">
-        <f t="shared" si="6"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="19">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="I38" s="11"/>
@@ -7414,50 +7881,62 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="25">
-        <f>IF(ISBLANK(G38),0,INDEX(ToolTypeListVnum, MATCH(G38,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="24"/>
+      <c r="N38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="19"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S38" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T38" s="25"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X38" s="25" t="e">
+      <c r="T38" s="20"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y38" s="24"/>
+      <c r="X38" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="11"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC38" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z38,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD38" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD38" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG38" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE38,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH38" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF38,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
@@ -7465,9 +7944,9 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="24">
-        <f t="shared" si="6"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="I39" s="11"/>
@@ -7478,50 +7957,62 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="25">
-        <f>IF(ISBLANK(G39),0,INDEX(ToolTypeListVnum, MATCH(G39,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="24"/>
+      <c r="N39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="19"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S39" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T39" s="25"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X39" s="25" t="e">
+      <c r="T39" s="20"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y39" s="24"/>
+      <c r="X39" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" s="19"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC39" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z39,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD39" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD39" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG39" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE39,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH39" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF39,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
         <v>38</v>
       </c>
       <c r="B40" s="11"/>
@@ -7529,9 +8020,9 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="24">
-        <f t="shared" si="6"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="19">
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="I40" s="11"/>
@@ -7542,50 +8033,62 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="25">
-        <f>IF(ISBLANK(G40),0,INDEX(ToolTypeListVnum, MATCH(G40,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="24"/>
+      <c r="N40" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="19"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S40" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T40" s="25"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X40" s="25" t="e">
+      <c r="T40" s="20"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y40" s="24"/>
+      <c r="X40" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" s="19"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC40" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z40,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD40" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD40" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG40" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE40,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH40" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF40,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
         <v>39</v>
       </c>
       <c r="B41" s="11"/>
@@ -7593,9 +8096,9 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="24">
-        <f t="shared" si="6"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="I41" s="11"/>
@@ -7606,50 +8109,62 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="25">
-        <f>IF(ISBLANK(G41),0,INDEX(ToolTypeListVnum, MATCH(G41,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="24"/>
+      <c r="N41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="19"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S41" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T41" s="25"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X41" s="25" t="e">
+      <c r="T41" s="20"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y41" s="24"/>
+      <c r="X41" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y41" s="19"/>
       <c r="Z41" s="11"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC41" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z41,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD41" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD41" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG41" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE41,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH41" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF41,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
         <v>40</v>
       </c>
       <c r="B42" s="11"/>
@@ -7657,9 +8172,9 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="24">
-        <f t="shared" si="6"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="19">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="I42" s="11"/>
@@ -7670,50 +8185,62 @@
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="25">
-        <f>IF(ISBLANK(G42),0,INDEX(ToolTypeListVnum, MATCH(G42,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="24"/>
+      <c r="N42" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="19"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S42" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T42" s="25"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X42" s="25" t="e">
+      <c r="T42" s="20"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y42" s="24"/>
+      <c r="X42" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y42" s="19"/>
       <c r="Z42" s="11"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC42" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z42,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD42" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD42" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG42" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE42,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH42" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF42,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
         <v>41</v>
       </c>
       <c r="B43" s="11"/>
@@ -7721,9 +8248,9 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="24">
-        <f t="shared" si="6"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="I43" s="11"/>
@@ -7734,50 +8261,62 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="25">
-        <f>IF(ISBLANK(G43),0,INDEX(ToolTypeListVnum, MATCH(G43,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="24"/>
+      <c r="N43" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="19"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S43" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T43" s="25"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X43" s="25" t="e">
+      <c r="T43" s="20"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y43" s="24"/>
+      <c r="X43" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" s="19"/>
       <c r="Z43" s="11"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC43" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z43,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD43" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD43" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG43" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE43,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH43" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF43,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
         <v>42</v>
       </c>
       <c r="B44" s="11"/>
@@ -7785,9 +8324,9 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="24">
-        <f t="shared" si="6"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="19">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="I44" s="11"/>
@@ -7798,50 +8337,62 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="25">
-        <f>IF(ISBLANK(G44),0,INDEX(ToolTypeListVnum, MATCH(G44,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="24"/>
+      <c r="N44" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="19"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S44" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T44" s="25"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X44" s="25" t="e">
+      <c r="T44" s="20"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y44" s="24"/>
+      <c r="X44" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" s="19"/>
       <c r="Z44" s="11"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC44" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z44,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD44" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD44" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG44" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE44,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH44" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF44,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
         <v>43</v>
       </c>
       <c r="B45" s="11"/>
@@ -7849,9 +8400,9 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="24">
-        <f t="shared" si="6"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="19">
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="I45" s="11"/>
@@ -7862,50 +8413,62 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="25">
-        <f>IF(ISBLANK(G45),0,INDEX(ToolTypeListVnum, MATCH(G45,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="24"/>
+      <c r="N45" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="19"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S45" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T45" s="25"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X45" s="25" t="e">
+      <c r="T45" s="20"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y45" s="24"/>
+      <c r="X45" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" s="19"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC45" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z45,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD45" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD45" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG45" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE45,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH45" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF45,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
@@ -7913,9 +8476,9 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="24">
-        <f t="shared" si="6"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="19">
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="I46" s="11"/>
@@ -7926,50 +8489,62 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="25">
-        <f>IF(ISBLANK(G46),0,INDEX(ToolTypeListVnum, MATCH(G46,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="24"/>
+      <c r="N46" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="19"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S46" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T46" s="25"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X46" s="25" t="e">
+      <c r="T46" s="20"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y46" s="24"/>
+      <c r="X46" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" s="19"/>
       <c r="Z46" s="11"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC46" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z46,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD46" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD46" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG46" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE46,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH46" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF46,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
         <v>45</v>
       </c>
       <c r="B47" s="11"/>
@@ -7977,9 +8552,9 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="24">
-        <f t="shared" si="6"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="19">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="I47" s="11"/>
@@ -7990,50 +8565,62 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="25">
-        <f>IF(ISBLANK(G47),0,INDEX(ToolTypeListVnum, MATCH(G47,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="24"/>
+      <c r="N47" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="19"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S47" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T47" s="25"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X47" s="25" t="e">
+      <c r="T47" s="20"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y47" s="24"/>
+      <c r="X47" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y47" s="19"/>
       <c r="Z47" s="11"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC47" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z47,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD47" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD47" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG47" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE47,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH47" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF47,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
         <v>46</v>
       </c>
       <c r="B48" s="11"/>
@@ -8041,9 +8628,9 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="24">
-        <f t="shared" si="6"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="19">
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="I48" s="11"/>
@@ -8054,50 +8641,62 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="25">
-        <f>IF(ISBLANK(G48),0,INDEX(ToolTypeListVnum, MATCH(G48,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="24"/>
+      <c r="N48" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="19"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="30" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="25" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S48" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T48" s="25"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X48" s="25" t="e">
+      <c r="T48" s="20"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y48" s="24"/>
+      <c r="X48" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y48" s="19"/>
       <c r="Z48" s="11"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="25" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC48" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z48,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD48" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="AD48" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG48" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE48,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH48" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF48,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
         <v>47</v>
       </c>
       <c r="B49" s="11"/>
@@ -8105,9 +8704,9 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="24">
-        <f t="shared" si="6"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="19">
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="I49" s="11"/>
@@ -8118,109 +8717,133 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="25">
-        <f>IF(ISBLANK(G49),0,INDEX(ToolTypeListVnum, MATCH(G49,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="24"/>
+      <c r="N49" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="19"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="30" t="e">
+      <c r="Q49" s="20"/>
+      <c r="R49" s="25" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S49" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T49" s="20"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X49" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="25" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC49" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD49" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG49" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE49,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH49" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF49,Knowledge,0), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
+        <v>48</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="19">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="24" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="20">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S49" s="11" t="e">
+        <v>0</v>
+      </c>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="T49" s="25"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="30" t="e">
+      <c r="S50" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X49" s="25" t="e">
+      <c r="T50" s="23"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="26" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="30" t="e">
+      <c r="X50" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="AC49" s="11" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z49,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD49" s="25">
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="26" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC50" s="22" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
-        <v>48</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="24">
-        <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="29" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="25">
-        <f>IF(ISBLANK(G50),0,INDEX(ToolTypeListVnum, MATCH(G50,ToolTypeList,0), 2))</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="31" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S50" s="27" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T50" s="28"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="31" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X50" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC50" s="27" t="e">
-        <f>INDEX(ResourceListVnum, MATCH(Z50,ResourceList,0), 2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD50" s="28">
-        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD50" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG50" s="25" t="e">
+        <f>INDEX(ProductionListVnum, MATCH(AE50,ProductionList,0), 1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH50" s="11">
+        <f>INDEX(KnowledgeVnum, MATCH(AF50,Knowledge,0), 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -8228,7 +8851,10 @@
   <sortState ref="A3:J12">
     <sortCondition ref="A3:A12"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:AA1"/>
@@ -8236,16 +8862,15 @@
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="AB1:AD1"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J50 C3:C50">
       <formula1>ProfessionList</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G50 V3:V50 AA4:AA50 N3:N50">
       <formula1>ToolTypeList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O50 U3:U50 Y3:Y50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O50 U3:U50 Y3:Y50 AE13:AE50">
       <formula1>ProductionList</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P50">
@@ -8253,6 +8878,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z50">
       <formula1>ResourceList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF50">
+      <formula1>Knowledge</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8263,7 +8891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -9251,8 +9879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView topLeftCell="H91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9275,36 +9903,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -14097,7 +14725,7 @@
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G100 A3:A4 M3:M100 S3:S100">
       <formula1>Skill</formula1>
     </dataValidation>
@@ -14110,9 +14738,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N100">
       <formula1>CombatModifier</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T100">
-      <formula1>Knowledge</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14123,7 +14748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -17346,12 +17971,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -17716,15 +18341,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -21410,7 +22035,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="M2" sqref="M2:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/RadMudEditor.xlsx
+++ b/doc/RadMudEditor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RaceBaseSkill" sheetId="8" r:id="rId1"/>
@@ -2068,15 +2068,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2084,6 +2075,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4590,7 +4590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -4632,60 +4632,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="33" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="36" t="s">
         <v>556</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="33" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>556</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="33" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="V1" s="38"/>
+      <c r="W1" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="33" t="s">
+      <c r="X1" s="38"/>
+      <c r="Y1" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="36" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="33" t="s">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="35"/>
+      <c r="AH1" s="37"/>
     </row>
     <row r="2" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -4895,11 +4895,11 @@
         <v>110</v>
       </c>
       <c r="AG3" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE3,ProductionList,0), 1)</f>
+        <f t="shared" ref="AG3:AG50" si="8">INDEX(ProductionListVnum, MATCH(AE3,ProductionList,0), 1)</f>
         <v>1</v>
       </c>
       <c r="AH3" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF3,Knowledge,0), 2)</f>
+        <f t="shared" ref="AH3:AH50" si="9">INDEX(KnowledgeVnum, MATCH(AF3,Knowledge,0), 2)</f>
         <v>17</v>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H50" si="8">A4</f>
+        <f t="shared" ref="H4:H50" si="10">A4</f>
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -4997,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="AD4" s="20">
-        <f t="shared" ref="AD4:AD50" si="9">AA4</f>
+        <f t="shared" ref="AD4:AD50" si="11">AA4</f>
         <v>1</v>
       </c>
       <c r="AE4" s="11" t="s">
@@ -5007,11 +5007,11 @@
         <v>110</v>
       </c>
       <c r="AG4" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE4,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AH4" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF4,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
         <v>489</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -5111,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="AD5" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE5" s="11" t="s">
@@ -5121,11 +5121,11 @@
         <v>102</v>
       </c>
       <c r="AG5" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE5,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AH5" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF5,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="AD6" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE6" s="11" t="s">
@@ -5233,11 +5233,11 @@
         <v>111</v>
       </c>
       <c r="AG6" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE6,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AH6" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF6,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -5335,7 +5335,7 @@
         <v>6</v>
       </c>
       <c r="AD7" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE7" s="11" t="s">
@@ -5345,11 +5345,11 @@
         <v>111</v>
       </c>
       <c r="AG7" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE7,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AH7" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF7,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
         <v>490</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -5449,7 +5449,7 @@
         <v>4</v>
       </c>
       <c r="AD8" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE8" s="11" t="s">
@@ -5459,11 +5459,11 @@
         <v>102</v>
       </c>
       <c r="AG8" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE8,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AH8" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF8,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
     </row>
@@ -5490,7 +5490,7 @@
         <v>489</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -5563,7 +5563,7 @@
         <v>3</v>
       </c>
       <c r="AD9" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE9" s="11" t="s">
@@ -5573,11 +5573,11 @@
         <v>102</v>
       </c>
       <c r="AG9" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE9,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AH9" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF9,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
         <v>490</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I10" s="11" t="s">
@@ -5677,7 +5677,7 @@
         <v>3</v>
       </c>
       <c r="AD10" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AE10" s="11" t="s">
@@ -5687,11 +5687,11 @@
         <v>102</v>
       </c>
       <c r="AG10" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE10,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AH10" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF10,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -5789,7 +5789,7 @@
         <v>3</v>
       </c>
       <c r="AD11" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE11" s="11" t="s">
@@ -5799,11 +5799,11 @@
         <v>112</v>
       </c>
       <c r="AG11" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE11,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AH11" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF11,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -5901,7 +5901,7 @@
         <v>5</v>
       </c>
       <c r="AD12" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE12" s="11" t="s">
@@ -5911,11 +5911,11 @@
         <v>112</v>
       </c>
       <c r="AG12" s="25">
-        <f>INDEX(ProductionListVnum, MATCH(AE12,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AH12" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF12,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="20"/>
       <c r="H13" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="I13" s="11"/>
@@ -5989,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="AD13" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE13" s="19"/>
@@ -5997,11 +5997,11 @@
         <v>39</v>
       </c>
       <c r="AG13" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE13,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH13" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF13,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="20"/>
       <c r="H14" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="I14" s="11"/>
@@ -6075,7 +6075,7 @@
         <v>11</v>
       </c>
       <c r="AD14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE14" s="19"/>
@@ -6083,11 +6083,11 @@
         <v>39</v>
       </c>
       <c r="AG14" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE14,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH14" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF14,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="20"/>
       <c r="H15" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="I15" s="11"/>
@@ -6155,7 +6155,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD15" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE15" s="19"/>
@@ -6163,11 +6163,11 @@
         <v>39</v>
       </c>
       <c r="AG15" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE15,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH15" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF15,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="20"/>
       <c r="H16" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="I16" s="11"/>
@@ -6235,7 +6235,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE16" s="19"/>
@@ -6243,11 +6243,11 @@
         <v>39</v>
       </c>
       <c r="AG16" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE16,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH16" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF16,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="20"/>
       <c r="H17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="I17" s="11"/>
@@ -6315,7 +6315,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD17" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE17" s="19"/>
@@ -6323,11 +6323,11 @@
         <v>39</v>
       </c>
       <c r="AG17" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE17,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH17" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF17,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6342,7 +6342,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="20"/>
       <c r="H18" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="I18" s="11"/>
@@ -6395,7 +6395,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD18" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE18" s="19"/>
@@ -6403,11 +6403,11 @@
         <v>39</v>
       </c>
       <c r="AG18" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE18,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH18" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF18,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="20"/>
       <c r="H19" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="I19" s="11"/>
@@ -6475,7 +6475,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD19" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE19" s="19"/>
@@ -6483,11 +6483,11 @@
         <v>39</v>
       </c>
       <c r="AG19" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE19,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH19" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF19,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="20"/>
       <c r="H20" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="I20" s="11"/>
@@ -6551,7 +6551,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD20" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE20" s="19"/>
@@ -6559,11 +6559,11 @@
         <v>39</v>
       </c>
       <c r="AG20" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE20,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH20" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF20,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="20"/>
       <c r="H21" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="I21" s="11"/>
@@ -6627,7 +6627,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD21" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE21" s="19"/>
@@ -6635,11 +6635,11 @@
         <v>39</v>
       </c>
       <c r="AG21" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE21,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH21" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF21,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="20"/>
       <c r="H22" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="I22" s="11"/>
@@ -6703,7 +6703,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD22" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE22" s="19"/>
@@ -6711,11 +6711,11 @@
         <v>39</v>
       </c>
       <c r="AG22" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE22,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH22" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF22,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6730,7 +6730,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="20"/>
       <c r="H23" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="I23" s="11"/>
@@ -6779,7 +6779,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD23" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE23" s="19"/>
@@ -6787,11 +6787,11 @@
         <v>39</v>
       </c>
       <c r="AG23" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE23,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH23" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF23,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="20"/>
       <c r="H24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="I24" s="11"/>
@@ -6855,7 +6855,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD24" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE24" s="19"/>
@@ -6863,11 +6863,11 @@
         <v>39</v>
       </c>
       <c r="AG24" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE24,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH24" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF24,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="20"/>
       <c r="H25" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="I25" s="11"/>
@@ -6931,7 +6931,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD25" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE25" s="19"/>
@@ -6939,11 +6939,11 @@
         <v>39</v>
       </c>
       <c r="AG25" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE25,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH25" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF25,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="20"/>
       <c r="H26" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="I26" s="11"/>
@@ -7007,7 +7007,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD26" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE26" s="19"/>
@@ -7015,11 +7015,11 @@
         <v>39</v>
       </c>
       <c r="AG26" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE26,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH26" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF26,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7034,7 +7034,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="20"/>
       <c r="H27" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="I27" s="11"/>
@@ -7083,7 +7083,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE27" s="19"/>
@@ -7091,11 +7091,11 @@
         <v>39</v>
       </c>
       <c r="AG27" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE27,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH27" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF27,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="20"/>
       <c r="H28" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="I28" s="11"/>
@@ -7159,7 +7159,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE28" s="19"/>
@@ -7167,11 +7167,11 @@
         <v>39</v>
       </c>
       <c r="AG28" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE28,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH28" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF28,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="20"/>
       <c r="H29" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="I29" s="11"/>
@@ -7235,7 +7235,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD29" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE29" s="19"/>
@@ -7243,11 +7243,11 @@
         <v>39</v>
       </c>
       <c r="AG29" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE29,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH29" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF29,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7262,7 +7262,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="20"/>
       <c r="H30" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="I30" s="11"/>
@@ -7311,7 +7311,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD30" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE30" s="19"/>
@@ -7319,11 +7319,11 @@
         <v>39</v>
       </c>
       <c r="AG30" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE30,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH30" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF30,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="20"/>
       <c r="H31" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="I31" s="11"/>
@@ -7387,7 +7387,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD31" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE31" s="19"/>
@@ -7395,11 +7395,11 @@
         <v>39</v>
       </c>
       <c r="AG31" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE31,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH31" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF31,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7414,7 +7414,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="20"/>
       <c r="H32" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="I32" s="11"/>
@@ -7463,7 +7463,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD32" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE32" s="19"/>
@@ -7471,11 +7471,11 @@
         <v>39</v>
       </c>
       <c r="AG32" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE32,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH32" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF32,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="20"/>
       <c r="H33" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="I33" s="11"/>
@@ -7539,7 +7539,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD33" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE33" s="19"/>
@@ -7547,11 +7547,11 @@
         <v>39</v>
       </c>
       <c r="AG33" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE33,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH33" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF33,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="20"/>
       <c r="H34" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="I34" s="11"/>
@@ -7615,7 +7615,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD34" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE34" s="19"/>
@@ -7623,11 +7623,11 @@
         <v>39</v>
       </c>
       <c r="AG34" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE34,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH34" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF34,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="20"/>
       <c r="H35" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="I35" s="11"/>
@@ -7691,7 +7691,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD35" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE35" s="19"/>
@@ -7699,11 +7699,11 @@
         <v>39</v>
       </c>
       <c r="AG35" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE35,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH35" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF35,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7718,7 +7718,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="20"/>
       <c r="H36" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="I36" s="11"/>
@@ -7767,7 +7767,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD36" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE36" s="19"/>
@@ -7775,11 +7775,11 @@
         <v>39</v>
       </c>
       <c r="AG36" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE36,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH36" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF36,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7794,7 +7794,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="20"/>
       <c r="H37" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="I37" s="11"/>
@@ -7843,7 +7843,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD37" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE37" s="19"/>
@@ -7851,11 +7851,11 @@
         <v>39</v>
       </c>
       <c r="AG37" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE37,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH37" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF37,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="20"/>
       <c r="H38" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="I38" s="11"/>
@@ -7919,7 +7919,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD38" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE38" s="19"/>
@@ -7927,11 +7927,11 @@
         <v>39</v>
       </c>
       <c r="AG38" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE38,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH38" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF38,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="20"/>
       <c r="H39" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="I39" s="11"/>
@@ -7995,7 +7995,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD39" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE39" s="19"/>
@@ -8003,11 +8003,11 @@
         <v>39</v>
       </c>
       <c r="AG39" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE39,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH39" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF39,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="20"/>
       <c r="H40" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="I40" s="11"/>
@@ -8071,7 +8071,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD40" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE40" s="19"/>
@@ -8079,11 +8079,11 @@
         <v>39</v>
       </c>
       <c r="AG40" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE40,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH40" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF40,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="20"/>
       <c r="H41" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="I41" s="11"/>
@@ -8147,7 +8147,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD41" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE41" s="19"/>
@@ -8155,11 +8155,11 @@
         <v>39</v>
       </c>
       <c r="AG41" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE41,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH41" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF41,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8174,7 +8174,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="20"/>
       <c r="H42" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="I42" s="11"/>
@@ -8223,7 +8223,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD42" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE42" s="19"/>
@@ -8231,11 +8231,11 @@
         <v>39</v>
       </c>
       <c r="AG42" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE42,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH42" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF42,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8250,7 +8250,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="20"/>
       <c r="H43" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="I43" s="11"/>
@@ -8299,7 +8299,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD43" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE43" s="19"/>
@@ -8307,11 +8307,11 @@
         <v>39</v>
       </c>
       <c r="AG43" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE43,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH43" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF43,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="20"/>
       <c r="H44" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="I44" s="11"/>
@@ -8375,7 +8375,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD44" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE44" s="19"/>
@@ -8383,11 +8383,11 @@
         <v>39</v>
       </c>
       <c r="AG44" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE44,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH44" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF44,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8402,7 +8402,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="20"/>
       <c r="H45" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="I45" s="11"/>
@@ -8451,7 +8451,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD45" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE45" s="19"/>
@@ -8459,11 +8459,11 @@
         <v>39</v>
       </c>
       <c r="AG45" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE45,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH45" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF45,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="20"/>
       <c r="H46" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="I46" s="11"/>
@@ -8527,7 +8527,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD46" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE46" s="19"/>
@@ -8535,11 +8535,11 @@
         <v>39</v>
       </c>
       <c r="AG46" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE46,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH46" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF46,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8554,7 +8554,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="20"/>
       <c r="H47" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="I47" s="11"/>
@@ -8603,7 +8603,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD47" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE47" s="19"/>
@@ -8611,11 +8611,11 @@
         <v>39</v>
       </c>
       <c r="AG47" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE47,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH47" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF47,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="20"/>
       <c r="H48" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="I48" s="11"/>
@@ -8679,7 +8679,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD48" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE48" s="19"/>
@@ -8687,11 +8687,11 @@
         <v>39</v>
       </c>
       <c r="AG48" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE48,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH48" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF48,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="20"/>
       <c r="H49" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="I49" s="11"/>
@@ -8755,7 +8755,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD49" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE49" s="19"/>
@@ -8763,11 +8763,11 @@
         <v>39</v>
       </c>
       <c r="AG49" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE49,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH49" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF49,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8782,7 +8782,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="23"/>
       <c r="H50" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="I50" s="22"/>
@@ -8831,7 +8831,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD50" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE50" s="21"/>
@@ -8839,11 +8839,11 @@
         <v>39</v>
       </c>
       <c r="AG50" s="25" t="e">
-        <f>INDEX(ProductionListVnum, MATCH(AE50,ProductionList,0), 1)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AH50" s="11">
-        <f>INDEX(KnowledgeVnum, MATCH(AF50,Knowledge,0), 2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8852,16 +8852,16 @@
     <sortCondition ref="A3:A12"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J50 C3:C50">
@@ -9879,8 +9879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView topLeftCell="H91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T100" sqref="T100"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/doc/RadMudEditor.xlsx
+++ b/doc/RadMudEditor.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="RaceBaseSkill" sheetId="8" r:id="rId1"/>
     <sheet name="RaceBaseAbility" sheetId="9" r:id="rId2"/>
-    <sheet name="SkillManager" sheetId="7" r:id="rId3"/>
-    <sheet name="SkillPrerequisites" sheetId="10" r:id="rId4"/>
-    <sheet name="BodyPartResources" sheetId="14" r:id="rId5"/>
-    <sheet name="BodyPart" sheetId="12" r:id="rId6"/>
-    <sheet name="Material" sheetId="11" r:id="rId7"/>
-    <sheet name="Model" sheetId="13" r:id="rId8"/>
-    <sheet name="Variables" sheetId="6" r:id="rId9"/>
-    <sheet name="Profession" sheetId="17" r:id="rId10"/>
-    <sheet name="Production" sheetId="16" r:id="rId11"/>
+    <sheet name="RaceNaturalWeapon" sheetId="18" r:id="rId3"/>
+    <sheet name="SkillManager" sheetId="7" r:id="rId4"/>
+    <sheet name="SkillPrerequisites" sheetId="10" r:id="rId5"/>
+    <sheet name="BodyPartResources" sheetId="14" r:id="rId6"/>
+    <sheet name="BodyPart" sheetId="12" r:id="rId7"/>
+    <sheet name="Material" sheetId="11" r:id="rId8"/>
+    <sheet name="Model" sheetId="13" r:id="rId9"/>
+    <sheet name="Variables" sheetId="6" r:id="rId10"/>
+    <sheet name="Profession" sheetId="17" r:id="rId11"/>
+    <sheet name="Production" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Ability">Variables!$C$2:$C$6</definedName>
@@ -2068,6 +2069,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2075,15 +2085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2402,9 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4099,10 +4098,1522 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="R5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="9">
+        <v>4</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="9">
+        <v>4</v>
+      </c>
+      <c r="P6" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="R6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="9">
+        <v>5</v>
+      </c>
+      <c r="P7" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6</v>
+      </c>
+      <c r="J8" s="9">
+        <v>6</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="9">
+        <v>6</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="9">
+        <v>6</v>
+      </c>
+      <c r="P8" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="R8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="9">
+        <v>7</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="9">
+        <v>7</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="9">
+        <v>7</v>
+      </c>
+      <c r="P9" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="R9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8</v>
+      </c>
+      <c r="J10" s="9">
+        <v>8</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="9">
+        <v>8</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="9">
+        <v>8</v>
+      </c>
+      <c r="P10" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="R10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9">
+        <v>9</v>
+      </c>
+      <c r="J11" s="9">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9">
+        <v>9</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="9">
+        <v>9</v>
+      </c>
+      <c r="P11" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="R11" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="9">
+        <v>10</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="9">
+        <v>10</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="P12" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="9">
+        <v>11</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="9">
+        <v>11</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="9">
+        <v>11</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="P13" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R13" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="9">
+        <v>13</v>
+      </c>
+      <c r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="J14" s="9">
+        <v>12</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="9">
+        <v>12</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="9">
+        <v>12</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="P14" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="R14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9">
+        <v>14</v>
+      </c>
+      <c r="H15" s="9">
+        <v>13</v>
+      </c>
+      <c r="J15" s="9">
+        <v>13</v>
+      </c>
+      <c r="L15" s="9">
+        <v>13</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="9">
+        <v>13</v>
+      </c>
+      <c r="P15" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="R15" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9">
+        <v>14</v>
+      </c>
+      <c r="J16" s="9">
+        <v>14</v>
+      </c>
+      <c r="L16" s="9">
+        <v>14</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="9">
+        <v>14</v>
+      </c>
+      <c r="P16" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="R16" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="9">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9">
+        <v>15</v>
+      </c>
+      <c r="J17" s="9">
+        <v>15</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="9">
+        <v>15</v>
+      </c>
+      <c r="P17" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="9">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="J18" s="9">
+        <v>16</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="9">
+        <v>16</v>
+      </c>
+      <c r="P18" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="R18" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="9">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9">
+        <v>17</v>
+      </c>
+      <c r="J19" s="9">
+        <v>17</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="9">
+        <v>17</v>
+      </c>
+      <c r="P19" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="R19" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9">
+        <v>19</v>
+      </c>
+      <c r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="J20" s="9">
+        <v>18</v>
+      </c>
+      <c r="L20" s="9">
+        <v>18</v>
+      </c>
+      <c r="P20" s="9">
+        <v>18</v>
+      </c>
+      <c r="R20" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9">
+        <v>20</v>
+      </c>
+      <c r="H21" s="9">
+        <v>19</v>
+      </c>
+      <c r="J21" s="9">
+        <v>19</v>
+      </c>
+      <c r="L21" s="9">
+        <v>19</v>
+      </c>
+      <c r="P21" s="9">
+        <v>19</v>
+      </c>
+      <c r="R21" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="9">
+        <v>21</v>
+      </c>
+      <c r="H22" s="9">
+        <v>20</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="9">
+        <v>20</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="9">
+        <v>20</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="P22" s="9">
+        <v>20</v>
+      </c>
+      <c r="R22" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9">
+        <v>22</v>
+      </c>
+      <c r="H23" s="9">
+        <v>21</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="9">
+        <v>21</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="9">
+        <v>21</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="P23" s="9">
+        <v>21</v>
+      </c>
+      <c r="R23" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="9">
+        <v>23</v>
+      </c>
+      <c r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="9">
+        <v>22</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="9">
+        <v>22</v>
+      </c>
+      <c r="P24" s="9">
+        <v>22</v>
+      </c>
+      <c r="R24" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="9">
+        <v>24</v>
+      </c>
+      <c r="H25" s="9">
+        <v>23</v>
+      </c>
+      <c r="J25" s="9">
+        <v>23</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="9">
+        <v>23</v>
+      </c>
+      <c r="P25" s="9">
+        <v>23</v>
+      </c>
+      <c r="R25" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="9">
+        <v>25</v>
+      </c>
+      <c r="H26" s="9">
+        <v>24</v>
+      </c>
+      <c r="J26" s="9">
+        <v>24</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="9">
+        <v>24</v>
+      </c>
+      <c r="P26" s="9">
+        <v>24</v>
+      </c>
+      <c r="R26" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="9">
+        <v>26</v>
+      </c>
+      <c r="H27" s="9">
+        <v>25</v>
+      </c>
+      <c r="J27" s="9">
+        <v>25</v>
+      </c>
+      <c r="L27" s="9">
+        <v>25</v>
+      </c>
+      <c r="P27" s="9">
+        <v>25</v>
+      </c>
+      <c r="R27" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="9">
+        <v>27</v>
+      </c>
+      <c r="J28" s="9">
+        <v>26</v>
+      </c>
+      <c r="L28" s="9">
+        <v>26</v>
+      </c>
+      <c r="P28" s="9">
+        <v>26</v>
+      </c>
+      <c r="R28" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="9">
+        <v>28</v>
+      </c>
+      <c r="J29" s="9">
+        <v>27</v>
+      </c>
+      <c r="L29" s="9">
+        <v>27</v>
+      </c>
+      <c r="P29" s="9">
+        <v>27</v>
+      </c>
+      <c r="R29" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="9">
+        <v>29</v>
+      </c>
+      <c r="J30" s="9">
+        <v>28</v>
+      </c>
+      <c r="L30" s="9">
+        <v>28</v>
+      </c>
+      <c r="P30" s="9">
+        <v>28</v>
+      </c>
+      <c r="R30" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="9">
+        <v>30</v>
+      </c>
+      <c r="J31" s="9">
+        <v>29</v>
+      </c>
+      <c r="L31" s="9">
+        <v>29</v>
+      </c>
+      <c r="P31" s="9">
+        <v>29</v>
+      </c>
+      <c r="R31" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="9">
+        <v>31</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="9">
+        <v>30</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="9">
+        <v>30</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="P32" s="9">
+        <v>30</v>
+      </c>
+      <c r="R32" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="9">
+        <v>32</v>
+      </c>
+      <c r="J33" s="9">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9">
+        <v>31</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="P33" s="9">
+        <v>31</v>
+      </c>
+      <c r="R33" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="9">
+        <v>33</v>
+      </c>
+      <c r="J34" s="9">
+        <v>32</v>
+      </c>
+      <c r="L34" s="9">
+        <v>32</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="P34" s="9">
+        <v>32</v>
+      </c>
+      <c r="R34" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="9">
+        <v>34</v>
+      </c>
+      <c r="J35" s="9">
+        <v>33</v>
+      </c>
+      <c r="L35" s="9">
+        <v>33</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="P35" s="9">
+        <v>33</v>
+      </c>
+      <c r="R35" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="9">
+        <v>35</v>
+      </c>
+      <c r="J36" s="9">
+        <v>34</v>
+      </c>
+      <c r="L36" s="9">
+        <v>34</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="P36" s="9">
+        <v>34</v>
+      </c>
+      <c r="R36" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="9">
+        <v>36</v>
+      </c>
+      <c r="J37" s="9">
+        <v>35</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" s="9">
+        <v>35</v>
+      </c>
+      <c r="P37" s="9">
+        <v>35</v>
+      </c>
+      <c r="R37" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E38" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="9">
+        <v>37</v>
+      </c>
+      <c r="J38" s="9">
+        <v>36</v>
+      </c>
+      <c r="L38" s="9">
+        <v>36</v>
+      </c>
+      <c r="P38" s="9">
+        <v>36</v>
+      </c>
+      <c r="R38" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="9">
+        <v>38</v>
+      </c>
+      <c r="J39" s="9">
+        <v>37</v>
+      </c>
+      <c r="L39" s="9">
+        <v>37</v>
+      </c>
+      <c r="P39" s="9">
+        <v>37</v>
+      </c>
+      <c r="R39" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E40" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="9">
+        <v>39</v>
+      </c>
+      <c r="J40" s="9">
+        <v>38</v>
+      </c>
+      <c r="L40" s="9">
+        <v>38</v>
+      </c>
+      <c r="P40" s="9">
+        <v>38</v>
+      </c>
+      <c r="R40" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E41" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="9">
+        <v>40</v>
+      </c>
+      <c r="J41" s="9">
+        <v>39</v>
+      </c>
+      <c r="L41" s="9">
+        <v>39</v>
+      </c>
+      <c r="P41" s="9">
+        <v>39</v>
+      </c>
+      <c r="R41" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E42" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="9">
+        <v>41</v>
+      </c>
+      <c r="J42" s="9">
+        <v>40</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" s="9">
+        <v>40</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="P42" s="9">
+        <v>40</v>
+      </c>
+      <c r="R42" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="9">
+        <v>42</v>
+      </c>
+      <c r="J43" s="9">
+        <v>41</v>
+      </c>
+      <c r="L43" s="9">
+        <v>41</v>
+      </c>
+      <c r="P43" s="9">
+        <v>41</v>
+      </c>
+      <c r="R43" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F44" s="9">
+        <v>43</v>
+      </c>
+      <c r="J44" s="9">
+        <v>42</v>
+      </c>
+      <c r="L44" s="9">
+        <v>42</v>
+      </c>
+      <c r="P44" s="9">
+        <v>42</v>
+      </c>
+      <c r="R44" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F45" s="9">
+        <v>44</v>
+      </c>
+      <c r="J45" s="9">
+        <v>43</v>
+      </c>
+      <c r="L45" s="9">
+        <v>43</v>
+      </c>
+      <c r="P45" s="9">
+        <v>43</v>
+      </c>
+      <c r="R45" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F46" s="9">
+        <v>45</v>
+      </c>
+      <c r="J46" s="9">
+        <v>44</v>
+      </c>
+      <c r="L46" s="9">
+        <v>44</v>
+      </c>
+      <c r="P46" s="9">
+        <v>44</v>
+      </c>
+      <c r="R46" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F47" s="9">
+        <v>46</v>
+      </c>
+      <c r="J47" s="9">
+        <v>45</v>
+      </c>
+      <c r="L47" s="9">
+        <v>45</v>
+      </c>
+      <c r="P47" s="9">
+        <v>45</v>
+      </c>
+      <c r="R47" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F48" s="9">
+        <v>47</v>
+      </c>
+      <c r="J48" s="9">
+        <v>46</v>
+      </c>
+      <c r="L48" s="9">
+        <v>46</v>
+      </c>
+      <c r="P48" s="9">
+        <v>46</v>
+      </c>
+      <c r="R48" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F49" s="9">
+        <v>48</v>
+      </c>
+      <c r="J49" s="9">
+        <v>47</v>
+      </c>
+      <c r="L49" s="9">
+        <v>47</v>
+      </c>
+      <c r="P49" s="9">
+        <v>47</v>
+      </c>
+      <c r="R49" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F50" s="9">
+        <v>49</v>
+      </c>
+      <c r="J50" s="9">
+        <v>48</v>
+      </c>
+      <c r="L50" s="9">
+        <v>48</v>
+      </c>
+      <c r="P50" s="9">
+        <v>48</v>
+      </c>
+      <c r="R50" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F51" s="9">
+        <v>50</v>
+      </c>
+      <c r="J51" s="9">
+        <v>49</v>
+      </c>
+      <c r="L51" s="9">
+        <v>49</v>
+      </c>
+      <c r="P51" s="9">
+        <v>49</v>
+      </c>
+      <c r="R51" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F52" s="9">
+        <v>51</v>
+      </c>
+      <c r="J52" s="9">
+        <v>50</v>
+      </c>
+      <c r="L52" s="9">
+        <v>50</v>
+      </c>
+      <c r="P52" s="9">
+        <v>50</v>
+      </c>
+      <c r="R52" s="9">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -4586,7 +6097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH50"/>
   <sheetViews>
@@ -4632,60 +6143,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="36" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="34"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="36" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="36" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="33" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="36" t="s">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="37"/>
+      <c r="AH1" s="34"/>
     </row>
     <row r="2" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -9877,9 +11388,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -14744,7 +16267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
@@ -16070,12 +17593,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17956,7 +19479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -18325,7 +19848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
@@ -19604,7 +21127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O52"/>
   <sheetViews>
@@ -22028,1515 +23551,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="P3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9">
-        <v>3</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="9">
-        <v>2</v>
-      </c>
-      <c r="L4" s="9">
-        <v>2</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="9">
-        <v>2</v>
-      </c>
-      <c r="P4" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="R4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="9">
-        <v>3</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="9">
-        <v>3</v>
-      </c>
-      <c r="P5" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="R5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="9">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="9">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4</v>
-      </c>
-      <c r="J6" s="9">
-        <v>4</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="9">
-        <v>4</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="9">
-        <v>4</v>
-      </c>
-      <c r="P6" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="R6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9">
-        <v>6</v>
-      </c>
-      <c r="H7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>5</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="9">
-        <v>5</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="9">
-        <v>5</v>
-      </c>
-      <c r="P7" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="R7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="9">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9">
-        <v>6</v>
-      </c>
-      <c r="J8" s="9">
-        <v>6</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="9">
-        <v>6</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="9">
-        <v>6</v>
-      </c>
-      <c r="P8" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="R8" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9">
-        <v>8</v>
-      </c>
-      <c r="H9" s="9">
-        <v>7</v>
-      </c>
-      <c r="J9" s="9">
-        <v>7</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="9">
-        <v>7</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="9">
-        <v>7</v>
-      </c>
-      <c r="P9" s="9">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="R9" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>9</v>
-      </c>
-      <c r="H10" s="9">
-        <v>8</v>
-      </c>
-      <c r="J10" s="9">
-        <v>8</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="9">
-        <v>8</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="9">
-        <v>8</v>
-      </c>
-      <c r="P10" s="9">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="R10" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9">
-        <v>9</v>
-      </c>
-      <c r="J11" s="9">
-        <v>9</v>
-      </c>
-      <c r="L11" s="9">
-        <v>9</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="9">
-        <v>9</v>
-      </c>
-      <c r="P11" s="9">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="R11" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9">
-        <v>11</v>
-      </c>
-      <c r="H12" s="9">
-        <v>10</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="9">
-        <v>10</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="9">
-        <v>10</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="9">
-        <v>10</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="P12" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="R12" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="9">
-        <v>12</v>
-      </c>
-      <c r="H13" s="9">
-        <v>11</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="9">
-        <v>11</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="9">
-        <v>11</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="9">
-        <v>11</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="P13" s="9">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="R13" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="9">
-        <v>13</v>
-      </c>
-      <c r="H14" s="9">
-        <v>12</v>
-      </c>
-      <c r="J14" s="9">
-        <v>12</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="9">
-        <v>12</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="9">
-        <v>12</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="P14" s="9">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="R14" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="9">
-        <v>14</v>
-      </c>
-      <c r="H15" s="9">
-        <v>13</v>
-      </c>
-      <c r="J15" s="9">
-        <v>13</v>
-      </c>
-      <c r="L15" s="9">
-        <v>13</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" s="9">
-        <v>13</v>
-      </c>
-      <c r="P15" s="9">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="R15" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="9">
-        <v>15</v>
-      </c>
-      <c r="H16" s="9">
-        <v>14</v>
-      </c>
-      <c r="J16" s="9">
-        <v>14</v>
-      </c>
-      <c r="L16" s="9">
-        <v>14</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" s="9">
-        <v>14</v>
-      </c>
-      <c r="P16" s="9">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="R16" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="9">
-        <v>16</v>
-      </c>
-      <c r="H17" s="9">
-        <v>15</v>
-      </c>
-      <c r="J17" s="9">
-        <v>15</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="9">
-        <v>15</v>
-      </c>
-      <c r="P17" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="9">
-        <v>17</v>
-      </c>
-      <c r="H18" s="9">
-        <v>16</v>
-      </c>
-      <c r="J18" s="9">
-        <v>16</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="9">
-        <v>16</v>
-      </c>
-      <c r="P18" s="9">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="R18" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="9">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9">
-        <v>17</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="9">
-        <v>17</v>
-      </c>
-      <c r="P19" s="9">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="R19" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="9">
-        <v>19</v>
-      </c>
-      <c r="H20" s="9">
-        <v>18</v>
-      </c>
-      <c r="J20" s="9">
-        <v>18</v>
-      </c>
-      <c r="L20" s="9">
-        <v>18</v>
-      </c>
-      <c r="P20" s="9">
-        <v>18</v>
-      </c>
-      <c r="R20" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9">
-        <v>20</v>
-      </c>
-      <c r="H21" s="9">
-        <v>19</v>
-      </c>
-      <c r="J21" s="9">
-        <v>19</v>
-      </c>
-      <c r="L21" s="9">
-        <v>19</v>
-      </c>
-      <c r="P21" s="9">
-        <v>19</v>
-      </c>
-      <c r="R21" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="9">
-        <v>21</v>
-      </c>
-      <c r="H22" s="9">
-        <v>20</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="9">
-        <v>20</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="9">
-        <v>20</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="P22" s="9">
-        <v>20</v>
-      </c>
-      <c r="R22" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="9">
-        <v>22</v>
-      </c>
-      <c r="H23" s="9">
-        <v>21</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="9">
-        <v>21</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="9">
-        <v>21</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="P23" s="9">
-        <v>21</v>
-      </c>
-      <c r="R23" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="9">
-        <v>23</v>
-      </c>
-      <c r="H24" s="9">
-        <v>22</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="9">
-        <v>22</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="9">
-        <v>22</v>
-      </c>
-      <c r="P24" s="9">
-        <v>22</v>
-      </c>
-      <c r="R24" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="9">
-        <v>24</v>
-      </c>
-      <c r="H25" s="9">
-        <v>23</v>
-      </c>
-      <c r="J25" s="9">
-        <v>23</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" s="9">
-        <v>23</v>
-      </c>
-      <c r="P25" s="9">
-        <v>23</v>
-      </c>
-      <c r="R25" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="9">
-        <v>25</v>
-      </c>
-      <c r="H26" s="9">
-        <v>24</v>
-      </c>
-      <c r="J26" s="9">
-        <v>24</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="9">
-        <v>24</v>
-      </c>
-      <c r="P26" s="9">
-        <v>24</v>
-      </c>
-      <c r="R26" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="9">
-        <v>26</v>
-      </c>
-      <c r="H27" s="9">
-        <v>25</v>
-      </c>
-      <c r="J27" s="9">
-        <v>25</v>
-      </c>
-      <c r="L27" s="9">
-        <v>25</v>
-      </c>
-      <c r="P27" s="9">
-        <v>25</v>
-      </c>
-      <c r="R27" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="9">
-        <v>27</v>
-      </c>
-      <c r="J28" s="9">
-        <v>26</v>
-      </c>
-      <c r="L28" s="9">
-        <v>26</v>
-      </c>
-      <c r="P28" s="9">
-        <v>26</v>
-      </c>
-      <c r="R28" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="9">
-        <v>28</v>
-      </c>
-      <c r="J29" s="9">
-        <v>27</v>
-      </c>
-      <c r="L29" s="9">
-        <v>27</v>
-      </c>
-      <c r="P29" s="9">
-        <v>27</v>
-      </c>
-      <c r="R29" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="9">
-        <v>29</v>
-      </c>
-      <c r="J30" s="9">
-        <v>28</v>
-      </c>
-      <c r="L30" s="9">
-        <v>28</v>
-      </c>
-      <c r="P30" s="9">
-        <v>28</v>
-      </c>
-      <c r="R30" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="9">
-        <v>30</v>
-      </c>
-      <c r="J31" s="9">
-        <v>29</v>
-      </c>
-      <c r="L31" s="9">
-        <v>29</v>
-      </c>
-      <c r="P31" s="9">
-        <v>29</v>
-      </c>
-      <c r="R31" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="9">
-        <v>31</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" s="9">
-        <v>30</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L32" s="9">
-        <v>30</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="P32" s="9">
-        <v>30</v>
-      </c>
-      <c r="R32" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="9">
-        <v>32</v>
-      </c>
-      <c r="J33" s="9">
-        <v>31</v>
-      </c>
-      <c r="L33" s="9">
-        <v>31</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="P33" s="9">
-        <v>31</v>
-      </c>
-      <c r="R33" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="9">
-        <v>33</v>
-      </c>
-      <c r="J34" s="9">
-        <v>32</v>
-      </c>
-      <c r="L34" s="9">
-        <v>32</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="P34" s="9">
-        <v>32</v>
-      </c>
-      <c r="R34" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="9">
-        <v>34</v>
-      </c>
-      <c r="J35" s="9">
-        <v>33</v>
-      </c>
-      <c r="L35" s="9">
-        <v>33</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="P35" s="9">
-        <v>33</v>
-      </c>
-      <c r="R35" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="9">
-        <v>35</v>
-      </c>
-      <c r="J36" s="9">
-        <v>34</v>
-      </c>
-      <c r="L36" s="9">
-        <v>34</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="P36" s="9">
-        <v>34</v>
-      </c>
-      <c r="R36" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="9">
-        <v>36</v>
-      </c>
-      <c r="J37" s="9">
-        <v>35</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L37" s="9">
-        <v>35</v>
-      </c>
-      <c r="P37" s="9">
-        <v>35</v>
-      </c>
-      <c r="R37" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E38" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="9">
-        <v>37</v>
-      </c>
-      <c r="J38" s="9">
-        <v>36</v>
-      </c>
-      <c r="L38" s="9">
-        <v>36</v>
-      </c>
-      <c r="P38" s="9">
-        <v>36</v>
-      </c>
-      <c r="R38" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E39" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="9">
-        <v>38</v>
-      </c>
-      <c r="J39" s="9">
-        <v>37</v>
-      </c>
-      <c r="L39" s="9">
-        <v>37</v>
-      </c>
-      <c r="P39" s="9">
-        <v>37</v>
-      </c>
-      <c r="R39" s="9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E40" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="9">
-        <v>39</v>
-      </c>
-      <c r="J40" s="9">
-        <v>38</v>
-      </c>
-      <c r="L40" s="9">
-        <v>38</v>
-      </c>
-      <c r="P40" s="9">
-        <v>38</v>
-      </c>
-      <c r="R40" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E41" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="9">
-        <v>40</v>
-      </c>
-      <c r="J41" s="9">
-        <v>39</v>
-      </c>
-      <c r="L41" s="9">
-        <v>39</v>
-      </c>
-      <c r="P41" s="9">
-        <v>39</v>
-      </c>
-      <c r="R41" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E42" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="9">
-        <v>41</v>
-      </c>
-      <c r="J42" s="9">
-        <v>40</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L42" s="9">
-        <v>40</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="P42" s="9">
-        <v>40</v>
-      </c>
-      <c r="R42" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E43" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="9">
-        <v>42</v>
-      </c>
-      <c r="J43" s="9">
-        <v>41</v>
-      </c>
-      <c r="L43" s="9">
-        <v>41</v>
-      </c>
-      <c r="P43" s="9">
-        <v>41</v>
-      </c>
-      <c r="R43" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F44" s="9">
-        <v>43</v>
-      </c>
-      <c r="J44" s="9">
-        <v>42</v>
-      </c>
-      <c r="L44" s="9">
-        <v>42</v>
-      </c>
-      <c r="P44" s="9">
-        <v>42</v>
-      </c>
-      <c r="R44" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F45" s="9">
-        <v>44</v>
-      </c>
-      <c r="J45" s="9">
-        <v>43</v>
-      </c>
-      <c r="L45" s="9">
-        <v>43</v>
-      </c>
-      <c r="P45" s="9">
-        <v>43</v>
-      </c>
-      <c r="R45" s="9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F46" s="9">
-        <v>45</v>
-      </c>
-      <c r="J46" s="9">
-        <v>44</v>
-      </c>
-      <c r="L46" s="9">
-        <v>44</v>
-      </c>
-      <c r="P46" s="9">
-        <v>44</v>
-      </c>
-      <c r="R46" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F47" s="9">
-        <v>46</v>
-      </c>
-      <c r="J47" s="9">
-        <v>45</v>
-      </c>
-      <c r="L47" s="9">
-        <v>45</v>
-      </c>
-      <c r="P47" s="9">
-        <v>45</v>
-      </c>
-      <c r="R47" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F48" s="9">
-        <v>47</v>
-      </c>
-      <c r="J48" s="9">
-        <v>46</v>
-      </c>
-      <c r="L48" s="9">
-        <v>46</v>
-      </c>
-      <c r="P48" s="9">
-        <v>46</v>
-      </c>
-      <c r="R48" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F49" s="9">
-        <v>48</v>
-      </c>
-      <c r="J49" s="9">
-        <v>47</v>
-      </c>
-      <c r="L49" s="9">
-        <v>47</v>
-      </c>
-      <c r="P49" s="9">
-        <v>47</v>
-      </c>
-      <c r="R49" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F50" s="9">
-        <v>49</v>
-      </c>
-      <c r="J50" s="9">
-        <v>48</v>
-      </c>
-      <c r="L50" s="9">
-        <v>48</v>
-      </c>
-      <c r="P50" s="9">
-        <v>48</v>
-      </c>
-      <c r="R50" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F51" s="9">
-        <v>50</v>
-      </c>
-      <c r="J51" s="9">
-        <v>49</v>
-      </c>
-      <c r="L51" s="9">
-        <v>49</v>
-      </c>
-      <c r="P51" s="9">
-        <v>49</v>
-      </c>
-      <c r="R51" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F52" s="9">
-        <v>51</v>
-      </c>
-      <c r="J52" s="9">
-        <v>50</v>
-      </c>
-      <c r="L52" s="9">
-        <v>50</v>
-      </c>
-      <c r="P52" s="9">
-        <v>50</v>
-      </c>
-      <c r="R52" s="9">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>